--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70242\Documents\Python\Ruihui-Intern\IndexEnhancement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiconte\Documents\RH\IndexEnhancement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1922F018-6DF0-4AD6-9361-EAAC513AA723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20655" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20655" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>date</t>
   </si>
@@ -928,11 +927,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,89 +997,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1099,7 +1032,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E0FEFE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1375,21 +1308,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KO2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:KO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BQ23" sqref="BQ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="301" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="302" max="16384" width="9" style="2"/>
+    <col min="302" max="302" width="9" style="2" customWidth="1"/>
+    <col min="303" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:301">
+    <row r="1" spans="1:301" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2228,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:301">
+    <row r="2" spans="1:301" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43426</v>
       </c>
@@ -3181,12 +3115,907 @@
         <v>4800</v>
       </c>
       <c r="KO2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>43427.620833333327</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1500</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1800</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>7100</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>500</v>
+      </c>
+      <c r="AH3">
+        <v>6000</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>10400</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>4700</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>400</v>
+      </c>
+      <c r="AX3">
+        <v>1800</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>3200</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3"/>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3"/>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>4200</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1400</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>2000</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>9400</v>
+      </c>
+      <c r="CM3">
+        <v>4000</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>3000</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>3000</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>300</v>
+      </c>
+      <c r="CU3">
+        <v>400</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>1700</v>
+      </c>
+      <c r="DB3">
+        <v>2000</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>600</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>300</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>2000</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>5600</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>4400</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>11300</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>4500</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
+      <c r="EL3">
+        <v>9400</v>
+      </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3"/>
+      <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
+        <v>200</v>
+      </c>
+      <c r="ET3">
+        <v>4600</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>0</v>
+      </c>
+      <c r="EY3">
+        <v>0</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>100</v>
+      </c>
+      <c r="FB3">
+        <v>0</v>
+      </c>
+      <c r="FC3">
+        <v>0</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>1700</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <v>2500</v>
+      </c>
+      <c r="FL3">
+        <v>2900</v>
+      </c>
+      <c r="FM3">
+        <v>1100</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <v>4200</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>1000</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>10100</v>
+      </c>
+      <c r="FV3">
+        <v>1700</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3"/>
+      <c r="FY3">
+        <v>0</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GD3">
+        <v>0</v>
+      </c>
+      <c r="GE3">
+        <v>800</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>300</v>
+      </c>
+      <c r="GH3">
+        <v>0</v>
+      </c>
+      <c r="GI3">
+        <v>0</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>1600</v>
+      </c>
+      <c r="GL3">
+        <v>400</v>
+      </c>
+      <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>700</v>
+      </c>
+      <c r="GO3">
+        <v>0</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
+      <c r="GR3">
+        <v>0</v>
+      </c>
+      <c r="GS3">
+        <v>0</v>
+      </c>
+      <c r="GT3">
+        <v>0</v>
+      </c>
+      <c r="GU3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>0</v>
+      </c>
+      <c r="GW3">
+        <v>0</v>
+      </c>
+      <c r="GX3">
+        <v>0</v>
+      </c>
+      <c r="GY3">
+        <v>0</v>
+      </c>
+      <c r="GZ3">
+        <v>0</v>
+      </c>
+      <c r="HA3">
+        <v>0</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>1900</v>
+      </c>
+      <c r="HD3">
+        <v>0</v>
+      </c>
+      <c r="HE3">
+        <v>0</v>
+      </c>
+      <c r="HF3">
+        <v>0</v>
+      </c>
+      <c r="HG3">
+        <v>0</v>
+      </c>
+      <c r="HH3">
+        <v>0</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0</v>
+      </c>
+      <c r="HK3">
+        <v>0</v>
+      </c>
+      <c r="HL3">
+        <v>1100</v>
+      </c>
+      <c r="HM3">
+        <v>0</v>
+      </c>
+      <c r="HN3">
+        <v>1500</v>
+      </c>
+      <c r="HO3">
+        <v>2600</v>
+      </c>
+      <c r="HP3">
+        <v>0</v>
+      </c>
+      <c r="HQ3">
+        <v>0</v>
+      </c>
+      <c r="HR3">
+        <v>4800</v>
+      </c>
+      <c r="HS3">
+        <v>0</v>
+      </c>
+      <c r="HT3">
+        <v>300</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>24900</v>
+      </c>
+      <c r="HW3">
+        <v>0</v>
+      </c>
+      <c r="HX3">
+        <v>1900</v>
+      </c>
+      <c r="HY3">
+        <v>0</v>
+      </c>
+      <c r="HZ3">
+        <v>1100</v>
+      </c>
+      <c r="IA3">
+        <v>1000</v>
+      </c>
+      <c r="IB3">
+        <v>0</v>
+      </c>
+      <c r="IC3">
+        <v>2400</v>
+      </c>
+      <c r="ID3">
+        <v>0</v>
+      </c>
+      <c r="IE3">
+        <v>2800</v>
+      </c>
+      <c r="IF3">
+        <v>0</v>
+      </c>
+      <c r="IG3">
+        <v>0</v>
+      </c>
+      <c r="IH3">
+        <v>0</v>
+      </c>
+      <c r="II3">
+        <v>0</v>
+      </c>
+      <c r="IJ3">
+        <v>0</v>
+      </c>
+      <c r="IK3">
+        <v>0</v>
+      </c>
+      <c r="IL3">
+        <v>0</v>
+      </c>
+      <c r="IM3">
+        <v>0</v>
+      </c>
+      <c r="IN3">
+        <v>2100</v>
+      </c>
+      <c r="IO3">
+        <v>0</v>
+      </c>
+      <c r="IP3">
+        <v>0</v>
+      </c>
+      <c r="IQ3">
+        <v>0</v>
+      </c>
+      <c r="IR3">
+        <v>8500</v>
+      </c>
+      <c r="IS3">
+        <v>0</v>
+      </c>
+      <c r="IT3">
+        <v>0</v>
+      </c>
+      <c r="IU3">
+        <v>7200</v>
+      </c>
+      <c r="IV3">
+        <v>0</v>
+      </c>
+      <c r="IW3">
+        <v>0</v>
+      </c>
+      <c r="IX3">
+        <v>0</v>
+      </c>
+      <c r="IY3">
+        <v>0</v>
+      </c>
+      <c r="IZ3">
+        <v>0</v>
+      </c>
+      <c r="JA3">
+        <v>0</v>
+      </c>
+      <c r="JB3">
+        <v>0</v>
+      </c>
+      <c r="JC3">
+        <v>1800</v>
+      </c>
+      <c r="JD3">
+        <v>0</v>
+      </c>
+      <c r="JE3">
+        <v>3600</v>
+      </c>
+      <c r="JF3">
+        <v>0</v>
+      </c>
+      <c r="JG3">
+        <v>0</v>
+      </c>
+      <c r="JH3">
+        <v>3500</v>
+      </c>
+      <c r="JI3">
+        <v>2600</v>
+      </c>
+      <c r="JJ3">
+        <v>0</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
+        <v>0</v>
+      </c>
+      <c r="JM3">
+        <v>0</v>
+      </c>
+      <c r="JN3">
+        <v>0</v>
+      </c>
+      <c r="JO3">
+        <v>0</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>0</v>
+      </c>
+      <c r="JR3">
+        <v>3500</v>
+      </c>
+      <c r="JS3">
+        <v>100</v>
+      </c>
+      <c r="JT3">
+        <v>0</v>
+      </c>
+      <c r="JU3">
+        <v>0</v>
+      </c>
+      <c r="JV3">
+        <v>0</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="JX3">
+        <v>0</v>
+      </c>
+      <c r="JY3">
+        <v>0</v>
+      </c>
+      <c r="JZ3">
+        <v>0</v>
+      </c>
+      <c r="KA3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0</v>
+      </c>
+      <c r="KC3">
+        <v>0</v>
+      </c>
+      <c r="KD3">
+        <v>0</v>
+      </c>
+      <c r="KE3">
+        <v>0</v>
+      </c>
+      <c r="KF3">
+        <v>400</v>
+      </c>
+      <c r="KG3">
+        <v>0</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>0</v>
+      </c>
+      <c r="KJ3">
+        <v>0</v>
+      </c>
+      <c r="KK3">
+        <v>0</v>
+      </c>
+      <c r="KL3">
+        <v>0</v>
+      </c>
+      <c r="KM3">
+        <v>0</v>
+      </c>
+      <c r="KN3">
+        <v>0</v>
+      </c>
+      <c r="KO3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70242\Documents\Python\Ruihui-Intern\IndexEnhancement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1922F018-6DF0-4AD6-9361-EAAC513AA723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B6EAA3-6513-4733-B823-20E110064112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20655" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="301">
   <si>
     <t>date</t>
   </si>
@@ -929,8 +930,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -997,15 +999,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1376,17 +1379,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KO2"/>
+  <dimension ref="A1:KO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="301" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="302" max="16384" width="9" style="2"/>
+    <col min="302" max="302" width="9" style="2" customWidth="1"/>
+    <col min="303" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:301">
@@ -2294,7 +2298,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:301">
+    <row r="2" spans="1:301" ht="17.25" customHeight="1">
       <c r="A2" s="3">
         <v>43426</v>
       </c>
@@ -3181,6 +3185,901 @@
         <v>4800</v>
       </c>
       <c r="KO2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:301">
+      <c r="A3" s="4">
+        <v>43427.620833333327</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1500</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1800</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>7100</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>500</v>
+      </c>
+      <c r="AH3">
+        <v>6000</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>10400</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>4700</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>400</v>
+      </c>
+      <c r="AX3">
+        <v>1800</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>3200</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3"/>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3"/>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>4200</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1400</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>2000</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>9400</v>
+      </c>
+      <c r="CM3">
+        <v>4000</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>3000</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>3000</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>300</v>
+      </c>
+      <c r="CU3">
+        <v>400</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>1700</v>
+      </c>
+      <c r="DB3">
+        <v>2000</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>600</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>300</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>2000</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>5600</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>4400</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>11300</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>4500</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
+      <c r="EL3">
+        <v>9400</v>
+      </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3"/>
+      <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
+        <v>200</v>
+      </c>
+      <c r="ET3">
+        <v>4600</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>0</v>
+      </c>
+      <c r="EY3">
+        <v>0</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>100</v>
+      </c>
+      <c r="FB3">
+        <v>0</v>
+      </c>
+      <c r="FC3">
+        <v>0</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>1700</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <v>2500</v>
+      </c>
+      <c r="FL3">
+        <v>2900</v>
+      </c>
+      <c r="FM3">
+        <v>1100</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <v>4200</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>1000</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>10100</v>
+      </c>
+      <c r="FV3">
+        <v>1700</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3"/>
+      <c r="FY3">
+        <v>0</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GD3">
+        <v>0</v>
+      </c>
+      <c r="GE3">
+        <v>800</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>300</v>
+      </c>
+      <c r="GH3">
+        <v>0</v>
+      </c>
+      <c r="GI3">
+        <v>0</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>1600</v>
+      </c>
+      <c r="GL3">
+        <v>400</v>
+      </c>
+      <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>700</v>
+      </c>
+      <c r="GO3">
+        <v>0</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
+      <c r="GR3">
+        <v>0</v>
+      </c>
+      <c r="GS3">
+        <v>0</v>
+      </c>
+      <c r="GT3">
+        <v>0</v>
+      </c>
+      <c r="GU3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>0</v>
+      </c>
+      <c r="GW3">
+        <v>0</v>
+      </c>
+      <c r="GX3">
+        <v>0</v>
+      </c>
+      <c r="GY3">
+        <v>0</v>
+      </c>
+      <c r="GZ3">
+        <v>0</v>
+      </c>
+      <c r="HA3">
+        <v>0</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>1900</v>
+      </c>
+      <c r="HD3">
+        <v>0</v>
+      </c>
+      <c r="HE3">
+        <v>0</v>
+      </c>
+      <c r="HF3">
+        <v>0</v>
+      </c>
+      <c r="HG3">
+        <v>0</v>
+      </c>
+      <c r="HH3">
+        <v>0</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0</v>
+      </c>
+      <c r="HK3">
+        <v>0</v>
+      </c>
+      <c r="HL3">
+        <v>1100</v>
+      </c>
+      <c r="HM3">
+        <v>0</v>
+      </c>
+      <c r="HN3">
+        <v>1500</v>
+      </c>
+      <c r="HO3">
+        <v>2600</v>
+      </c>
+      <c r="HP3">
+        <v>0</v>
+      </c>
+      <c r="HQ3">
+        <v>0</v>
+      </c>
+      <c r="HR3">
+        <v>4800</v>
+      </c>
+      <c r="HS3">
+        <v>0</v>
+      </c>
+      <c r="HT3">
+        <v>300</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>24900</v>
+      </c>
+      <c r="HW3">
+        <v>0</v>
+      </c>
+      <c r="HX3">
+        <v>1900</v>
+      </c>
+      <c r="HY3">
+        <v>0</v>
+      </c>
+      <c r="HZ3">
+        <v>1100</v>
+      </c>
+      <c r="IA3">
+        <v>1000</v>
+      </c>
+      <c r="IB3">
+        <v>0</v>
+      </c>
+      <c r="IC3">
+        <v>2400</v>
+      </c>
+      <c r="ID3">
+        <v>0</v>
+      </c>
+      <c r="IE3">
+        <v>2800</v>
+      </c>
+      <c r="IF3">
+        <v>0</v>
+      </c>
+      <c r="IG3">
+        <v>0</v>
+      </c>
+      <c r="IH3">
+        <v>0</v>
+      </c>
+      <c r="II3">
+        <v>0</v>
+      </c>
+      <c r="IJ3">
+        <v>0</v>
+      </c>
+      <c r="IK3">
+        <v>0</v>
+      </c>
+      <c r="IL3">
+        <v>0</v>
+      </c>
+      <c r="IM3">
+        <v>0</v>
+      </c>
+      <c r="IN3">
+        <v>2100</v>
+      </c>
+      <c r="IO3">
+        <v>0</v>
+      </c>
+      <c r="IP3">
+        <v>0</v>
+      </c>
+      <c r="IQ3">
+        <v>0</v>
+      </c>
+      <c r="IR3">
+        <v>8500</v>
+      </c>
+      <c r="IS3">
+        <v>0</v>
+      </c>
+      <c r="IT3">
+        <v>0</v>
+      </c>
+      <c r="IU3">
+        <v>7200</v>
+      </c>
+      <c r="IV3">
+        <v>0</v>
+      </c>
+      <c r="IW3">
+        <v>0</v>
+      </c>
+      <c r="IX3">
+        <v>0</v>
+      </c>
+      <c r="IY3">
+        <v>0</v>
+      </c>
+      <c r="IZ3">
+        <v>0</v>
+      </c>
+      <c r="JA3">
+        <v>0</v>
+      </c>
+      <c r="JB3">
+        <v>0</v>
+      </c>
+      <c r="JC3">
+        <v>1800</v>
+      </c>
+      <c r="JD3">
+        <v>0</v>
+      </c>
+      <c r="JE3">
+        <v>3600</v>
+      </c>
+      <c r="JF3">
+        <v>0</v>
+      </c>
+      <c r="JG3">
+        <v>0</v>
+      </c>
+      <c r="JH3">
+        <v>3500</v>
+      </c>
+      <c r="JI3">
+        <v>2600</v>
+      </c>
+      <c r="JJ3">
+        <v>0</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
+        <v>0</v>
+      </c>
+      <c r="JM3">
+        <v>0</v>
+      </c>
+      <c r="JN3">
+        <v>0</v>
+      </c>
+      <c r="JO3">
+        <v>0</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>0</v>
+      </c>
+      <c r="JR3">
+        <v>3500</v>
+      </c>
+      <c r="JS3">
+        <v>100</v>
+      </c>
+      <c r="JT3">
+        <v>0</v>
+      </c>
+      <c r="JU3">
+        <v>0</v>
+      </c>
+      <c r="JV3">
+        <v>0</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="JX3">
+        <v>0</v>
+      </c>
+      <c r="JY3">
+        <v>0</v>
+      </c>
+      <c r="JZ3">
+        <v>0</v>
+      </c>
+      <c r="KA3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0</v>
+      </c>
+      <c r="KC3">
+        <v>0</v>
+      </c>
+      <c r="KD3">
+        <v>0</v>
+      </c>
+      <c r="KE3">
+        <v>0</v>
+      </c>
+      <c r="KF3">
+        <v>400</v>
+      </c>
+      <c r="KG3">
+        <v>0</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>0</v>
+      </c>
+      <c r="KJ3">
+        <v>0</v>
+      </c>
+      <c r="KK3">
+        <v>0</v>
+      </c>
+      <c r="KL3">
+        <v>0</v>
+      </c>
+      <c r="KM3">
+        <v>0</v>
+      </c>
+      <c r="KN3">
+        <v>0</v>
+      </c>
+      <c r="KO3">
         <v>0</v>
       </c>
     </row>
@@ -3189,4 +4088,99 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DF9ED3-FBD1-4755-9D05-178FEB6E8E7F}">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="14.25">
+      <c r="A2" s="3">
+        <v>43426</v>
+      </c>
+      <c r="B2">
+        <f>(1)*Sheet1!C2</f>
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="4">
+        <v>43427.620833333327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="14.25">
+      <c r="A4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiconte\Documents\RH\IndexEnhancement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20655" windowHeight="9600"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9600" windowWidth="20655" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
   <si>
     <t>date</t>
   </si>
@@ -927,44 +922,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="165"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="166"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -995,32 +991,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1308,22 +1300,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KO3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:KO4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
       <selection activeCell="BQ23" sqref="BQ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="301" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="9" style="2" customWidth="1"/>
-    <col min="303" max="16384" width="9" style="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="24.5"/>
+    <col bestFit="1" customWidth="1" max="301" min="2" style="2" width="12"/>
+    <col customWidth="1" max="302" min="302" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="303" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:301" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:301">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2228,1794 +2224,2693 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:301">
+      <c r="A2" s="5" t="n">
         <v>43426</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>11100</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>8300</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="n">
         <v>36600</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="n">
         <v>33600</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="2" t="n">
         <v>92400</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="2" t="n">
         <v>13300</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>31600</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="2" t="n">
         <v>30400</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="2" t="n">
         <v>20200</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="2" t="n">
         <v>6300</v>
       </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>26700</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="2" t="n">
         <v>41300</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="2" t="n">
         <v>2800</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="2" t="n">
         <v>6100</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="2" t="n">
         <v>7500</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="2" t="n">
         <v>22400</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="2" t="n">
         <v>54100</v>
       </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
         <v>55600</v>
       </c>
-      <c r="AB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2">
+      <c r="AB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
         <v>30600</v>
       </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2">
+      <c r="AD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="n">
         <v>24600</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="2" t="n">
         <v>11400</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="2" t="n">
         <v>8700</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="2" t="n">
         <v>31300</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2" s="2" t="n">
         <v>9500</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2" s="2" t="n">
         <v>34800</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2" s="2" t="n">
         <v>6200</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="2" t="n">
         <v>74800</v>
       </c>
-      <c r="AM2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2">
+      <c r="AM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2" t="n">
         <v>59500</v>
       </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="2">
+      <c r="AO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2" t="n">
         <v>1200</v>
       </c>
-      <c r="AR2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="2">
+      <c r="AR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="n">
         <v>27900</v>
       </c>
-      <c r="AT2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="2">
+      <c r="AT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2" t="n">
         <v>19800</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="AW2" s="2" t="n">
         <v>3200</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="AX2" s="2" t="n">
         <v>7400</v>
       </c>
-      <c r="AY2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="2">
+      <c r="AY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="2" t="n">
         <v>19300</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BC2" s="2" t="n">
         <v>26500</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2" s="2" t="n">
         <v>3700</v>
       </c>
-      <c r="BE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="2">
+      <c r="BE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2" t="n">
         <v>30800</v>
       </c>
-      <c r="BG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="2">
+      <c r="BG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="n">
         <v>29700</v>
       </c>
-      <c r="BJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="2">
+      <c r="BJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="2" t="n">
         <v>9500</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="BL2" s="2" t="n">
         <v>10300</v>
       </c>
-      <c r="BM2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="2">
+      <c r="BM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="2" t="n">
         <v>9500</v>
       </c>
-      <c r="BS2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="2">
+      <c r="BS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="BV2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="2">
+      <c r="BV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="n">
         <v>2800</v>
       </c>
-      <c r="BZ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2">
+      <c r="BZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="n">
         <v>41600</v>
       </c>
-      <c r="CC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="2">
+      <c r="CC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="2" t="n">
         <v>44100</v>
       </c>
-      <c r="CF2" s="2">
+      <c r="CF2" s="2" t="n">
         <v>7900</v>
       </c>
-      <c r="CG2" s="2">
+      <c r="CG2" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="CH2" s="2">
+      <c r="CH2" s="2" t="n">
         <v>4600</v>
       </c>
-      <c r="CI2" s="2">
+      <c r="CI2" s="2" t="n">
         <v>5300</v>
       </c>
-      <c r="CJ2" s="2">
+      <c r="CJ2" s="2" t="n">
         <v>8400</v>
       </c>
-      <c r="CK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="2">
+      <c r="CK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="2" t="n">
         <v>22200</v>
       </c>
-      <c r="CM2" s="2">
+      <c r="CM2" s="2" t="n">
         <v>35200</v>
       </c>
-      <c r="CN2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="2">
+      <c r="CN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="2" t="n">
         <v>23000</v>
       </c>
-      <c r="CP2" s="2">
+      <c r="CP2" s="2" t="n">
         <v>13100</v>
       </c>
-      <c r="CQ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="2">
+      <c r="CQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="2" t="n">
         <v>17000</v>
       </c>
-      <c r="CS2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="2">
+      <c r="CS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="2" t="n">
         <v>31900</v>
       </c>
-      <c r="CU2" s="2">
+      <c r="CU2" s="2" t="n">
         <v>9600</v>
       </c>
-      <c r="CV2" s="2">
+      <c r="CV2" s="2" t="n">
         <v>1700</v>
       </c>
-      <c r="CW2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CX2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY2" s="2">
+      <c r="CW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="2" t="n">
         <v>10700</v>
       </c>
-      <c r="CZ2" s="2">
+      <c r="CZ2" s="2" t="n">
         <v>38000</v>
       </c>
-      <c r="DA2" s="2">
+      <c r="DA2" s="2" t="n">
         <v>4100</v>
       </c>
-      <c r="DB2" s="2">
+      <c r="DB2" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="DC2" s="2">
+      <c r="DC2" s="2" t="n">
         <v>3800</v>
       </c>
-      <c r="DD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DE2" s="2">
+      <c r="DD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="2" t="n">
         <v>7900</v>
       </c>
-      <c r="DF2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DI2" s="2">
+      <c r="DF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="2" t="n">
         <v>20100</v>
       </c>
-      <c r="DJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DL2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DM2" s="2">
+      <c r="DJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="2" t="n">
         <v>48400</v>
       </c>
-      <c r="DN2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DO2" s="2">
+      <c r="DN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="2" t="n">
         <v>19400</v>
       </c>
-      <c r="DP2" s="2">
+      <c r="DP2" s="2" t="n">
         <v>4800</v>
       </c>
-      <c r="DQ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DR2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DS2" s="2">
+      <c r="DQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="2" t="n">
         <v>21600</v>
       </c>
-      <c r="DT2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DU2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DV2" s="2">
+      <c r="DT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV2" s="2" t="n">
         <v>54400</v>
       </c>
-      <c r="DW2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DX2" s="2">
+      <c r="DW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" s="2" t="n">
         <v>66900</v>
       </c>
-      <c r="DY2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DZ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="EA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="EB2" s="2">
+      <c r="DY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB2" s="2" t="n">
         <v>5800</v>
       </c>
-      <c r="EC2" s="2">
+      <c r="EC2" s="2" t="n">
         <v>18800</v>
       </c>
-      <c r="ED2" s="2">
-        <v>0</v>
-      </c>
-      <c r="EE2" s="2">
+      <c r="ED2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE2" s="2" t="n">
         <v>24000</v>
       </c>
-      <c r="EF2" s="2">
-        <v>0</v>
-      </c>
-      <c r="EG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="EH2" s="2">
+      <c r="EF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH2" s="2" t="n">
         <v>4400</v>
       </c>
-      <c r="EI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="EJ2" s="2">
+      <c r="EI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="2" t="n">
         <v>23900</v>
       </c>
-      <c r="EK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="EL2" s="2">
+      <c r="EK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="2" t="n">
         <v>50000</v>
       </c>
-      <c r="EM2" s="2">
+      <c r="EM2" s="2" t="n">
         <v>3800</v>
       </c>
-      <c r="EN2" s="2">
+      <c r="EN2" s="2" t="n">
         <v>27900</v>
       </c>
-      <c r="EO2" s="2">
+      <c r="EO2" s="2" t="n">
         <v>17900</v>
       </c>
-      <c r="EP2" s="2">
+      <c r="EP2" s="2" t="n">
         <v>27200</v>
       </c>
-      <c r="ER2" s="2">
+      <c r="ER2" s="2" t="n">
         <v>51700</v>
       </c>
-      <c r="ES2" s="2">
+      <c r="ES2" s="2" t="n">
         <v>14400</v>
       </c>
-      <c r="ET2" s="2">
+      <c r="ET2" s="2" t="n">
         <v>26300</v>
       </c>
-      <c r="EU2" s="2">
-        <v>0</v>
-      </c>
-      <c r="EV2" s="2">
+      <c r="EU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV2" s="2" t="n">
         <v>5500</v>
       </c>
-      <c r="EW2" s="2">
+      <c r="EW2" s="2" t="n">
         <v>30800</v>
       </c>
-      <c r="EX2" s="2">
-        <v>0</v>
-      </c>
-      <c r="EY2" s="2">
+      <c r="EX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="2" t="n">
         <v>103900</v>
       </c>
-      <c r="EZ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FA2" s="2">
+      <c r="EZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="2" t="n">
         <v>3800</v>
       </c>
-      <c r="FB2" s="2">
+      <c r="FB2" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="FC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FF2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FG2" s="2">
+      <c r="FC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="2" t="n">
         <v>16600</v>
       </c>
-      <c r="FH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FJ2" s="2">
+      <c r="FH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ2" s="2" t="n">
         <v>2600</v>
       </c>
-      <c r="FK2" s="2">
+      <c r="FK2" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="FL2" s="2">
+      <c r="FL2" s="2" t="n">
         <v>19600</v>
       </c>
-      <c r="FM2" s="2">
+      <c r="FM2" s="2" t="n">
         <v>21100</v>
       </c>
-      <c r="FN2" s="2">
+      <c r="FN2" s="2" t="n">
         <v>15300</v>
       </c>
-      <c r="FO2" s="2">
+      <c r="FO2" s="2" t="n">
         <v>22400</v>
       </c>
-      <c r="FP2" s="2">
+      <c r="FP2" s="2" t="n">
         <v>5700</v>
       </c>
-      <c r="FQ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FR2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FS2" s="2">
+      <c r="FQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" s="2" t="n">
         <v>13200</v>
       </c>
-      <c r="FT2" s="2">
+      <c r="FT2" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="FU2" s="2">
+      <c r="FU2" s="2" t="n">
         <v>30900</v>
       </c>
-      <c r="FV2" s="2">
+      <c r="FV2" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="FW2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FX2" s="2">
+      <c r="FW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="FY2" s="2">
-        <v>0</v>
-      </c>
-      <c r="FZ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GC2" s="2">
+      <c r="FY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" s="2" t="n">
         <v>5600</v>
       </c>
-      <c r="GD2" s="2">
+      <c r="GD2" s="2" t="n">
         <v>5800</v>
       </c>
-      <c r="GE2" s="2">
+      <c r="GE2" s="2" t="n">
         <v>4100</v>
       </c>
-      <c r="GF2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GG2" s="2">
+      <c r="GF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG2" s="2" t="n">
         <v>4200</v>
       </c>
-      <c r="GH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GK2" s="2">
+      <c r="GH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK2" s="2" t="n">
         <v>29800</v>
       </c>
-      <c r="GL2" s="2">
+      <c r="GL2" s="2" t="n">
         <v>33400</v>
       </c>
-      <c r="GM2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GN2" s="2">
+      <c r="GM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN2" s="2" t="n">
         <v>17400</v>
       </c>
-      <c r="GO2" s="2">
+      <c r="GO2" s="2" t="n">
         <v>9200</v>
       </c>
-      <c r="GP2" s="2">
+      <c r="GP2" s="2" t="n">
         <v>17200</v>
       </c>
-      <c r="GQ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GR2" s="2">
+      <c r="GQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" s="2" t="n">
         <v>13900</v>
       </c>
-      <c r="GS2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GT2" s="2">
+      <c r="GS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" s="2" t="n">
         <v>77000</v>
       </c>
-      <c r="GU2" s="2">
+      <c r="GU2" s="2" t="n">
         <v>20800</v>
       </c>
-      <c r="GV2" s="2">
+      <c r="GV2" s="2" t="n">
         <v>11400</v>
       </c>
-      <c r="GW2" s="2">
-        <v>0</v>
-      </c>
-      <c r="GX2" s="2">
+      <c r="GW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX2" s="2" t="n">
         <v>23200</v>
       </c>
-      <c r="GY2" s="2">
+      <c r="GY2" s="2" t="n">
         <v>18300</v>
       </c>
-      <c r="GZ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="HA2" s="2">
+      <c r="GZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA2" s="2" t="n">
         <v>14500</v>
       </c>
-      <c r="HB2" s="2">
+      <c r="HB2" s="2" t="n">
         <v>31900</v>
       </c>
-      <c r="HC2" s="2">
+      <c r="HC2" s="2" t="n">
         <v>4400</v>
       </c>
-      <c r="HD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="HE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="HF2" s="2">
+      <c r="HD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF2" s="2" t="n">
         <v>4600</v>
       </c>
-      <c r="HG2" s="2">
+      <c r="HG2" s="2" t="n">
         <v>5200</v>
       </c>
-      <c r="HH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="HI2" s="2">
+      <c r="HH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI2" s="2" t="n">
         <v>13200</v>
       </c>
-      <c r="HJ2" s="2">
+      <c r="HJ2" s="2" t="n">
         <v>3700</v>
       </c>
-      <c r="HK2" s="2">
+      <c r="HK2" s="2" t="n">
         <v>2800</v>
       </c>
-      <c r="HL2" s="2">
+      <c r="HL2" s="2" t="n">
         <v>9600</v>
       </c>
-      <c r="HM2" s="2">
+      <c r="HM2" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="HN2" s="2">
+      <c r="HN2" s="2" t="n">
         <v>15200</v>
       </c>
-      <c r="HO2" s="2">
+      <c r="HO2" s="2" t="n">
         <v>7900</v>
       </c>
-      <c r="HP2" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR2" s="2">
+      <c r="HP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR2" s="2" t="n">
         <v>14400</v>
       </c>
-      <c r="HS2" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT2" s="2">
+      <c r="HS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT2" s="2" t="n">
         <v>3600</v>
       </c>
-      <c r="HU2" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV2" s="2">
+      <c r="HU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV2" s="2" t="n">
         <v>58700</v>
       </c>
-      <c r="HW2" s="2">
+      <c r="HW2" s="2" t="n">
         <v>12100</v>
       </c>
-      <c r="HX2" s="2">
+      <c r="HX2" s="2" t="n">
         <v>28600</v>
       </c>
-      <c r="HY2" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ2" s="2">
+      <c r="HY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ2" s="2" t="n">
         <v>15400</v>
       </c>
-      <c r="IA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC2" s="2">
+      <c r="IA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC2" s="2" t="n">
         <v>1200</v>
       </c>
-      <c r="ID2" s="2">
+      <c r="ID2" s="2" t="n">
         <v>12300</v>
       </c>
-      <c r="IE2" s="2">
+      <c r="IE2" s="2" t="n">
         <v>9600</v>
       </c>
-      <c r="IF2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG2" s="2">
+      <c r="IF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG2" s="2" t="n">
         <v>78300</v>
       </c>
-      <c r="IH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="II2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IL2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IM2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IN2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IO2" s="2">
+      <c r="IH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="II2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO2" s="2" t="n">
         <v>12700</v>
       </c>
-      <c r="IP2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IQ2" s="2">
+      <c r="IP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ2" s="2" t="n">
         <v>2900</v>
       </c>
-      <c r="IR2" s="2">
+      <c r="IR2" s="2" t="n">
         <v>42200</v>
       </c>
-      <c r="IS2" s="2">
+      <c r="IS2" s="2" t="n">
         <v>2600</v>
       </c>
-      <c r="IT2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IU2" s="2">
+      <c r="IT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU2" s="2" t="n">
         <v>23300</v>
       </c>
-      <c r="IV2" s="2">
+      <c r="IV2" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="IW2" s="2">
-        <v>0</v>
-      </c>
-      <c r="IX2" s="2">
+      <c r="IW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX2" s="2" t="n">
         <v>20800</v>
       </c>
-      <c r="IY2" s="2">
+      <c r="IY2" s="2" t="n">
         <v>12200</v>
       </c>
-      <c r="IZ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JB2" s="2">
+      <c r="IZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB2" s="2" t="n">
         <v>14800</v>
       </c>
-      <c r="JC2" s="2">
+      <c r="JC2" s="2" t="n">
         <v>40700</v>
       </c>
-      <c r="JD2" s="2">
+      <c r="JD2" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="JE2" s="2">
+      <c r="JE2" s="2" t="n">
         <v>5800</v>
       </c>
-      <c r="JF2" s="2">
+      <c r="JF2" s="2" t="n">
         <v>36500</v>
       </c>
-      <c r="JG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JH2" s="2">
+      <c r="JG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH2" s="2" t="n">
         <v>29500</v>
       </c>
-      <c r="JI2" s="2">
+      <c r="JI2" s="2" t="n">
         <v>20100</v>
       </c>
-      <c r="JJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JL2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JM2" s="2">
+      <c r="JJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM2" s="2" t="n">
         <v>9400</v>
       </c>
-      <c r="JN2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JO2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JP2" s="2">
+      <c r="JN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP2" s="2" t="n">
         <v>84400</v>
       </c>
-      <c r="JQ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JR2" s="2">
+      <c r="JQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR2" s="2" t="n">
         <v>26900</v>
       </c>
-      <c r="JS2" s="2">
+      <c r="JS2" s="2" t="n">
         <v>23100</v>
       </c>
-      <c r="JT2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JU2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JV2" s="2">
+      <c r="JT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV2" s="2" t="n">
         <v>17500</v>
       </c>
-      <c r="JW2" s="2">
+      <c r="JW2" s="2" t="n">
         <v>21500</v>
       </c>
-      <c r="JX2" s="2">
+      <c r="JX2" s="2" t="n">
         <v>17200</v>
       </c>
-      <c r="JY2" s="2">
-        <v>0</v>
-      </c>
-      <c r="JZ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KD2" s="2">
+      <c r="JY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD2" s="2" t="n">
         <v>47900</v>
       </c>
-      <c r="KE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KF2" s="2">
+      <c r="KE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF2" s="2" t="n">
         <v>49800</v>
       </c>
-      <c r="KG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KL2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KM2" s="2">
-        <v>0</v>
-      </c>
-      <c r="KN2" s="2">
+      <c r="KG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN2" s="2" t="n">
         <v>4800</v>
       </c>
-      <c r="KO2" s="2">
+      <c r="KO2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>43427.620833333327</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:301">
+      <c r="A3" s="6" t="n">
+        <v>43427.62083333332</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1500</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>1800</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3"/>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>7100</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>500</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>6000</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>10400</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
         <v>4700</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
         <v>400</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>1800</v>
       </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
         <v>3200</v>
       </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3"/>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3"/>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
         <v>4200</v>
       </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
         <v>1400</v>
       </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
         <v>2000</v>
       </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
         <v>9400</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>4000</v>
       </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
         <v>3000</v>
       </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
         <v>3000</v>
       </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
         <v>300</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>400</v>
       </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DA3">
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
         <v>1700</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" t="n">
         <v>2000</v>
       </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DD3">
-        <v>0</v>
-      </c>
-      <c r="DE3">
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="n">
         <v>600</v>
       </c>
-      <c r="DF3">
-        <v>0</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>0</v>
-      </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0</v>
-      </c>
-      <c r="DK3">
-        <v>0</v>
-      </c>
-      <c r="DL3">
+      <c r="DF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="n">
         <v>300</v>
       </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3">
-        <v>0</v>
-      </c>
-      <c r="DQ3">
-        <v>0</v>
-      </c>
-      <c r="DR3">
-        <v>0</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3">
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
         <v>2000</v>
       </c>
-      <c r="DW3">
-        <v>0</v>
-      </c>
-      <c r="DX3">
+      <c r="DW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="n">
         <v>5600</v>
       </c>
-      <c r="DY3">
-        <v>0</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>0</v>
-      </c>
-      <c r="EB3">
-        <v>0</v>
-      </c>
-      <c r="EC3">
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
         <v>4400</v>
       </c>
-      <c r="ED3">
-        <v>0</v>
-      </c>
-      <c r="EE3">
+      <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
         <v>11300</v>
       </c>
-      <c r="EF3">
-        <v>0</v>
-      </c>
-      <c r="EG3">
-        <v>0</v>
-      </c>
-      <c r="EH3">
-        <v>0</v>
-      </c>
-      <c r="EI3">
-        <v>0</v>
-      </c>
-      <c r="EJ3">
+      <c r="EF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
         <v>4500</v>
       </c>
-      <c r="EK3">
-        <v>0</v>
-      </c>
-      <c r="EL3">
+      <c r="EK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="n">
         <v>9400</v>
       </c>
-      <c r="EM3">
-        <v>0</v>
-      </c>
-      <c r="EN3">
-        <v>0</v>
-      </c>
-      <c r="EO3">
-        <v>0</v>
-      </c>
-      <c r="EP3">
-        <v>0</v>
-      </c>
-      <c r="EQ3"/>
-      <c r="ER3">
-        <v>0</v>
-      </c>
-      <c r="ES3">
+      <c r="EM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
         <v>200</v>
       </c>
-      <c r="ET3">
+      <c r="ET3" t="n">
         <v>4600</v>
       </c>
-      <c r="EU3">
-        <v>0</v>
-      </c>
-      <c r="EV3">
-        <v>0</v>
-      </c>
-      <c r="EW3">
-        <v>0</v>
-      </c>
-      <c r="EX3">
-        <v>0</v>
-      </c>
-      <c r="EY3">
-        <v>0</v>
-      </c>
-      <c r="EZ3">
-        <v>0</v>
-      </c>
-      <c r="FA3">
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
         <v>100</v>
       </c>
-      <c r="FB3">
-        <v>0</v>
-      </c>
-      <c r="FC3">
-        <v>0</v>
-      </c>
-      <c r="FD3">
-        <v>0</v>
-      </c>
-      <c r="FE3">
-        <v>0</v>
-      </c>
-      <c r="FF3">
-        <v>0</v>
-      </c>
-      <c r="FG3">
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG3" t="n">
         <v>1700</v>
       </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
-        <v>0</v>
-      </c>
-      <c r="FJ3">
-        <v>0</v>
-      </c>
-      <c r="FK3">
+      <c r="FH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" t="n">
         <v>2500</v>
       </c>
-      <c r="FL3">
+      <c r="FL3" t="n">
         <v>2900</v>
       </c>
-      <c r="FM3">
+      <c r="FM3" t="n">
         <v>1100</v>
       </c>
-      <c r="FN3">
-        <v>0</v>
-      </c>
-      <c r="FO3">
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
         <v>4200</v>
       </c>
-      <c r="FP3">
-        <v>0</v>
-      </c>
-      <c r="FQ3">
-        <v>0</v>
-      </c>
-      <c r="FR3">
+      <c r="FP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
         <v>1000</v>
       </c>
-      <c r="FS3">
-        <v>0</v>
-      </c>
-      <c r="FT3">
-        <v>0</v>
-      </c>
-      <c r="FU3">
+      <c r="FS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
         <v>10100</v>
       </c>
-      <c r="FV3">
+      <c r="FV3" t="n">
         <v>1700</v>
       </c>
-      <c r="FW3">
-        <v>0</v>
-      </c>
-      <c r="FX3"/>
-      <c r="FY3">
-        <v>0</v>
-      </c>
-      <c r="FZ3">
-        <v>0</v>
-      </c>
-      <c r="GA3">
-        <v>0</v>
-      </c>
-      <c r="GB3">
-        <v>0</v>
-      </c>
-      <c r="GC3">
-        <v>0</v>
-      </c>
-      <c r="GD3">
-        <v>0</v>
-      </c>
-      <c r="GE3">
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
         <v>800</v>
       </c>
-      <c r="GF3">
-        <v>0</v>
-      </c>
-      <c r="GG3">
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
         <v>300</v>
       </c>
-      <c r="GH3">
-        <v>0</v>
-      </c>
-      <c r="GI3">
-        <v>0</v>
-      </c>
-      <c r="GJ3">
-        <v>0</v>
-      </c>
-      <c r="GK3">
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
         <v>1600</v>
       </c>
-      <c r="GL3">
+      <c r="GL3" t="n">
         <v>400</v>
       </c>
-      <c r="GM3">
-        <v>0</v>
-      </c>
-      <c r="GN3">
+      <c r="GM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" t="n">
         <v>700</v>
       </c>
-      <c r="GO3">
-        <v>0</v>
-      </c>
-      <c r="GP3">
-        <v>0</v>
-      </c>
-      <c r="GQ3">
-        <v>0</v>
-      </c>
-      <c r="GR3">
-        <v>0</v>
-      </c>
-      <c r="GS3">
-        <v>0</v>
-      </c>
-      <c r="GT3">
-        <v>0</v>
-      </c>
-      <c r="GU3">
-        <v>0</v>
-      </c>
-      <c r="GV3">
-        <v>0</v>
-      </c>
-      <c r="GW3">
-        <v>0</v>
-      </c>
-      <c r="GX3">
-        <v>0</v>
-      </c>
-      <c r="GY3">
-        <v>0</v>
-      </c>
-      <c r="GZ3">
-        <v>0</v>
-      </c>
-      <c r="HA3">
-        <v>0</v>
-      </c>
-      <c r="HB3">
-        <v>0</v>
-      </c>
-      <c r="HC3">
+      <c r="GO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
         <v>1900</v>
       </c>
-      <c r="HD3">
-        <v>0</v>
-      </c>
-      <c r="HE3">
-        <v>0</v>
-      </c>
-      <c r="HF3">
-        <v>0</v>
-      </c>
-      <c r="HG3">
-        <v>0</v>
-      </c>
-      <c r="HH3">
-        <v>0</v>
-      </c>
-      <c r="HI3">
-        <v>0</v>
-      </c>
-      <c r="HJ3">
-        <v>0</v>
-      </c>
-      <c r="HK3">
-        <v>0</v>
-      </c>
-      <c r="HL3">
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
         <v>1100</v>
       </c>
-      <c r="HM3">
-        <v>0</v>
-      </c>
-      <c r="HN3">
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
         <v>1500</v>
       </c>
-      <c r="HO3">
+      <c r="HO3" t="n">
         <v>2600</v>
       </c>
-      <c r="HP3">
-        <v>0</v>
-      </c>
-      <c r="HQ3">
-        <v>0</v>
-      </c>
-      <c r="HR3">
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR3" t="n">
         <v>4800</v>
       </c>
-      <c r="HS3">
-        <v>0</v>
-      </c>
-      <c r="HT3">
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
         <v>300</v>
       </c>
-      <c r="HU3">
-        <v>0</v>
-      </c>
-      <c r="HV3">
+      <c r="HU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV3" t="n">
         <v>24900</v>
       </c>
-      <c r="HW3">
-        <v>0</v>
-      </c>
-      <c r="HX3">
+      <c r="HW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX3" t="n">
         <v>1900</v>
       </c>
-      <c r="HY3">
-        <v>0</v>
-      </c>
-      <c r="HZ3">
+      <c r="HY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ3" t="n">
         <v>1100</v>
       </c>
-      <c r="IA3">
+      <c r="IA3" t="n">
         <v>1000</v>
       </c>
-      <c r="IB3">
-        <v>0</v>
-      </c>
-      <c r="IC3">
+      <c r="IB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC3" t="n">
         <v>2400</v>
       </c>
-      <c r="ID3">
-        <v>0</v>
-      </c>
-      <c r="IE3">
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
         <v>2800</v>
       </c>
-      <c r="IF3">
-        <v>0</v>
-      </c>
-      <c r="IG3">
-        <v>0</v>
-      </c>
-      <c r="IH3">
-        <v>0</v>
-      </c>
-      <c r="II3">
-        <v>0</v>
-      </c>
-      <c r="IJ3">
-        <v>0</v>
-      </c>
-      <c r="IK3">
-        <v>0</v>
-      </c>
-      <c r="IL3">
-        <v>0</v>
-      </c>
-      <c r="IM3">
-        <v>0</v>
-      </c>
-      <c r="IN3">
+      <c r="IF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN3" t="n">
         <v>2100</v>
       </c>
-      <c r="IO3">
-        <v>0</v>
-      </c>
-      <c r="IP3">
-        <v>0</v>
-      </c>
-      <c r="IQ3">
-        <v>0</v>
-      </c>
-      <c r="IR3">
+      <c r="IO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR3" t="n">
         <v>8500</v>
       </c>
-      <c r="IS3">
-        <v>0</v>
-      </c>
-      <c r="IT3">
-        <v>0</v>
-      </c>
-      <c r="IU3">
+      <c r="IS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU3" t="n">
         <v>7200</v>
       </c>
-      <c r="IV3">
-        <v>0</v>
-      </c>
-      <c r="IW3">
-        <v>0</v>
-      </c>
-      <c r="IX3">
-        <v>0</v>
-      </c>
-      <c r="IY3">
-        <v>0</v>
-      </c>
-      <c r="IZ3">
-        <v>0</v>
-      </c>
-      <c r="JA3">
-        <v>0</v>
-      </c>
-      <c r="JB3">
-        <v>0</v>
-      </c>
-      <c r="JC3">
+      <c r="IV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC3" t="n">
         <v>1800</v>
       </c>
-      <c r="JD3">
-        <v>0</v>
-      </c>
-      <c r="JE3">
+      <c r="JD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE3" t="n">
         <v>3600</v>
       </c>
-      <c r="JF3">
-        <v>0</v>
-      </c>
-      <c r="JG3">
-        <v>0</v>
-      </c>
-      <c r="JH3">
+      <c r="JF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH3" t="n">
         <v>3500</v>
       </c>
-      <c r="JI3">
+      <c r="JI3" t="n">
         <v>2600</v>
       </c>
-      <c r="JJ3">
-        <v>0</v>
-      </c>
-      <c r="JK3">
-        <v>0</v>
-      </c>
-      <c r="JL3">
-        <v>0</v>
-      </c>
-      <c r="JM3">
-        <v>0</v>
-      </c>
-      <c r="JN3">
-        <v>0</v>
-      </c>
-      <c r="JO3">
-        <v>0</v>
-      </c>
-      <c r="JP3">
-        <v>0</v>
-      </c>
-      <c r="JQ3">
-        <v>0</v>
-      </c>
-      <c r="JR3">
+      <c r="JJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR3" t="n">
         <v>3500</v>
       </c>
-      <c r="JS3">
+      <c r="JS3" t="n">
         <v>100</v>
       </c>
-      <c r="JT3">
-        <v>0</v>
-      </c>
-      <c r="JU3">
-        <v>0</v>
-      </c>
-      <c r="JV3">
-        <v>0</v>
-      </c>
-      <c r="JW3">
-        <v>0</v>
-      </c>
-      <c r="JX3">
-        <v>0</v>
-      </c>
-      <c r="JY3">
-        <v>0</v>
-      </c>
-      <c r="JZ3">
-        <v>0</v>
-      </c>
-      <c r="KA3">
-        <v>0</v>
-      </c>
-      <c r="KB3">
-        <v>0</v>
-      </c>
-      <c r="KC3">
-        <v>0</v>
-      </c>
-      <c r="KD3">
-        <v>0</v>
-      </c>
-      <c r="KE3">
-        <v>0</v>
-      </c>
-      <c r="KF3">
+      <c r="JT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF3" t="n">
         <v>400</v>
       </c>
-      <c r="KG3">
-        <v>0</v>
-      </c>
-      <c r="KH3">
-        <v>0</v>
-      </c>
-      <c r="KI3">
-        <v>0</v>
-      </c>
-      <c r="KJ3">
-        <v>0</v>
-      </c>
-      <c r="KK3">
-        <v>0</v>
-      </c>
-      <c r="KL3">
-        <v>0</v>
-      </c>
-      <c r="KM3">
-        <v>0</v>
-      </c>
-      <c r="KN3">
-        <v>0</v>
-      </c>
-      <c r="KO3">
+      <c r="KG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:301">
+      <c r="A4" s="7" t="n">
+        <v>43430.62083333333</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5200</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2600</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>10300</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>7600</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2900</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v/>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v/>
+      </c>
+      <c r="BU4" t="n">
+        <v/>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>6900</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>2900</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1700</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>1900</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>400</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>3100</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>5900</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>700</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>4100</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>7500</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>3800</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v/>
+      </c>
+      <c r="ER4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>7300</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>4800</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>1700</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>9700</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>4700</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>500</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>200</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>2600</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>300</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>700</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1100</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>200</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>4700</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>200</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>22400</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1900</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>100</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>4500</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>6100</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1100</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>3400</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>800</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>4100</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="1200" orientation="portrait" paperSize="9" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1305,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO4"/>
+  <dimension ref="A1:KO5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
       <selection activeCell="BQ23" sqref="BQ23"/>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="4" spans="1:301">
       <c r="A4" s="7" t="n">
-        <v>43430.62083333333</v>
+        <v>43430.62083333332</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -4059,9 +4059,6 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
@@ -4203,9 +4200,6 @@
       <c r="BN4" t="n">
         <v>0</v>
       </c>
-      <c r="BO4" t="n">
-        <v/>
-      </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
@@ -4217,12 +4211,6 @@
       </c>
       <c r="BS4" t="n">
         <v>0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v/>
-      </c>
-      <c r="BU4" t="n">
-        <v/>
       </c>
       <c r="BV4" t="n">
         <v>0</v>
@@ -4443,9 +4431,6 @@
       <c r="EP4" t="n">
         <v>0</v>
       </c>
-      <c r="EQ4" t="n">
-        <v/>
-      </c>
       <c r="ER4" t="n">
         <v>0</v>
       </c>
@@ -4906,6 +4891,911 @@
         <v>0</v>
       </c>
       <c r="KO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:301">
+      <c r="A5" s="7" t="n">
+        <v>43431.62083333333</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6900</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5100</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5200</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>5500</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>4000</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v/>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v/>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>4800</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>7700</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>3200</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>2900</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>800</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>800</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>1900</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>400</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>6800</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>2200</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>200</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>800</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>7100</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>4700</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>8400</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v/>
+      </c>
+      <c r="ER5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>6800</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>1900</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>3400</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>5100</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>4400</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>1100</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>11400</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>2700</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>5500</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>300</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>900</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>400</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>2300</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>500</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>1700</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>700</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>5300</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>400</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>23300</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>600</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>300</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>1900</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="II5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>3100</v>
+      </c>
+      <c r="IO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>4900</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU5" t="n">
+        <v>9800</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC5" t="n">
+        <v>6300</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>2600</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>900</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>4000</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="KG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1306,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO7"/>
+  <dimension ref="A1:KO8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="7" spans="1:301">
       <c r="A7" s="8" t="n">
-        <v>43433.62083333333</v>
+        <v>43433.62083333332</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -6736,9 +6736,6 @@
       <c r="R7" t="n">
         <v>900</v>
       </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
@@ -6880,9 +6877,6 @@
       <c r="BN7" t="n">
         <v>0</v>
       </c>
-      <c r="BO7" t="n">
-        <v/>
-      </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
@@ -6895,9 +6889,6 @@
       <c r="BS7" t="n">
         <v>0</v>
       </c>
-      <c r="BT7" t="n">
-        <v/>
-      </c>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
@@ -7120,9 +7111,6 @@
       <c r="EP7" t="n">
         <v>0</v>
       </c>
-      <c r="EQ7" t="n">
-        <v/>
-      </c>
       <c r="ER7" t="n">
         <v>0</v>
       </c>
@@ -7583,6 +7571,911 @@
         <v>0</v>
       </c>
       <c r="KO7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:301">
+      <c r="A8" s="8" t="n">
+        <v>43434.62083333333</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2100</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5500</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6500</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6700</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8200</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>3700</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>21600</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>4100</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>6200</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>5300</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>4800</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v/>
+      </c>
+      <c r="BP8" t="n">
+        <v>700</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>600</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v/>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>900</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>2500</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>400</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>2800</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>5500</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>1100</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>10100</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>6400</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>500</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>2500</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>900</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>200</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>2200</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>200</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>7700</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>9400</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>2800</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>2400</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>1100</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v/>
+      </c>
+      <c r="ER8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>2400</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>4700</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>2100</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>19000</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>3200</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>12700</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>200</v>
+      </c>
+      <c r="GH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL8" t="n">
+        <v>1100</v>
+      </c>
+      <c r="GM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>21400</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>2500</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>3300</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>3200</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>1700</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>5800</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>7500</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ8" t="n">
+        <v>4500</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>3400</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>3900</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="II8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO8" t="n">
+        <v>11100</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="IV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY8" t="n">
+        <v>11300</v>
+      </c>
+      <c r="IZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC8" t="n">
+        <v>33100</v>
+      </c>
+      <c r="JD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH8" t="n">
+        <v>9400</v>
+      </c>
+      <c r="JI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>100</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>6200</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="JY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD8" t="n">
+        <v>5500</v>
+      </c>
+      <c r="KE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1306,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO8"/>
+  <dimension ref="A1:KO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="8" spans="1:301">
       <c r="A8" s="8" t="n">
-        <v>43434.62083333333</v>
+        <v>43434.62083333332</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -7629,9 +7629,6 @@
       <c r="R8" t="n">
         <v>1800</v>
       </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
@@ -7773,9 +7770,6 @@
       <c r="BN8" t="n">
         <v>0</v>
       </c>
-      <c r="BO8" t="n">
-        <v/>
-      </c>
       <c r="BP8" t="n">
         <v>700</v>
       </c>
@@ -7788,9 +7782,6 @@
       <c r="BS8" t="n">
         <v>0</v>
       </c>
-      <c r="BT8" t="n">
-        <v/>
-      </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
@@ -8013,9 +8004,6 @@
       <c r="EP8" t="n">
         <v>0</v>
       </c>
-      <c r="EQ8" t="n">
-        <v/>
-      </c>
       <c r="ER8" t="n">
         <v>0</v>
       </c>
@@ -8477,6 +8465,911 @@
       </c>
       <c r="KO8" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:301">
+      <c r="A9" s="8" t="n">
+        <v>43437.62083333333</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8800</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9400</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12900</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13800</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>27000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>87000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>27900</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K9" t="n">
+        <v>33200</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12800</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16400</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10300</v>
+      </c>
+      <c r="P9" t="n">
+        <v>24200</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>17400</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7200</v>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v>35400</v>
+      </c>
+      <c r="U9" t="n">
+        <v>8900</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7500</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>20900</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>50900</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10600</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>35000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>30400</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>5400</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>20700</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>46500</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17100</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>30100</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>90100</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>8300</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>92600</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13300</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>3200</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>800</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>9100</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>7700</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>8300</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>13400</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>15300</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>36600</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>16700</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>25200</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>5700</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>15800</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>23700</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>7500</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>19400</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>23100</v>
+      </c>
+      <c r="BO9" t="n">
+        <v/>
+      </c>
+      <c r="BP9" t="n">
+        <v>8100</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>3300</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>66900</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>2800</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>13100</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>9200</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>13100</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>41100</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>9300</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>27100</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>28500</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>4100</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>4300</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>12600</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>5500</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>23300</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>17600</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>2100</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>46500</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>10900</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>22600</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>17900</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>20500</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>10800</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>10400</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>13100</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>6500</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>12100</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>4900</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>3400</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>7800</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>12700</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>400</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>15500</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>37100</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>19300</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>51200</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>9300</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>20400</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>38500</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>65200</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>11500</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>43000</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>10200</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>12100</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>7700</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>19400</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>25900</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>12500</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>3700</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>4300</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>22300</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>19200</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>24700</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>3800</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>46900</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>13300</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>5700</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v/>
+      </c>
+      <c r="ER9" t="n">
+        <v>11500</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>20900</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>36600</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>12600</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>55100</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>6500</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>45400</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>6100</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>11300</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>11400</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>29900</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>12600</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>4200</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>18400</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>13300</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>22500</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>29400</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>38000</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>12200</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>3800</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>67600</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>15400</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>5400</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>57000</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>5900</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>600</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>36700</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>13700</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>4600</v>
+      </c>
+      <c r="GH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>900</v>
+      </c>
+      <c r="GJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>14100</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>4300</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>700</v>
+      </c>
+      <c r="GO9" t="n">
+        <v>13200</v>
+      </c>
+      <c r="GP9" t="n">
+        <v>700</v>
+      </c>
+      <c r="GQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR9" t="n">
+        <v>30500</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>12000</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>62800</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>4900</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>6600</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>106300</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>22300</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>15500</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>11000</v>
+      </c>
+      <c r="HC9" t="n">
+        <v>19900</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>23600</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>20600</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>12500</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>7900</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>3300</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL9" t="n">
+        <v>500</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>68400</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>9800</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>13600</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>5300</v>
+      </c>
+      <c r="HQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>29400</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>6900</v>
+      </c>
+      <c r="HU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>10400</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>4100</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>47500</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>14600</v>
+      </c>
+      <c r="HZ9" t="n">
+        <v>5200</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>17300</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>27000</v>
+      </c>
+      <c r="IC9" t="n">
+        <v>22800</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>5700</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>23900</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>3300</v>
+      </c>
+      <c r="IG9" t="n">
+        <v>7900</v>
+      </c>
+      <c r="IH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="II9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK9" t="n">
+        <v>700</v>
+      </c>
+      <c r="IL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM9" t="n">
+        <v>2300</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>49500</v>
+      </c>
+      <c r="IO9" t="n">
+        <v>62000</v>
+      </c>
+      <c r="IP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="IR9" t="n">
+        <v>29300</v>
+      </c>
+      <c r="IS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>10200</v>
+      </c>
+      <c r="IU9" t="n">
+        <v>25500</v>
+      </c>
+      <c r="IV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW9" t="n">
+        <v>700</v>
+      </c>
+      <c r="IX9" t="n">
+        <v>8900</v>
+      </c>
+      <c r="IY9" t="n">
+        <v>35800</v>
+      </c>
+      <c r="IZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA9" t="n">
+        <v>7200</v>
+      </c>
+      <c r="JB9" t="n">
+        <v>7000</v>
+      </c>
+      <c r="JC9" t="n">
+        <v>111000</v>
+      </c>
+      <c r="JD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE9" t="n">
+        <v>18400</v>
+      </c>
+      <c r="JF9" t="n">
+        <v>23400</v>
+      </c>
+      <c r="JG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH9" t="n">
+        <v>47500</v>
+      </c>
+      <c r="JI9" t="n">
+        <v>7600</v>
+      </c>
+      <c r="JJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL9" t="n">
+        <v>50100</v>
+      </c>
+      <c r="JM9" t="n">
+        <v>17100</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>66500</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>11600</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>29200</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>19400</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>9200</v>
+      </c>
+      <c r="JW9" t="n">
+        <v>17400</v>
+      </c>
+      <c r="JX9" t="n">
+        <v>105600</v>
+      </c>
+      <c r="JY9" t="n">
+        <v>9700</v>
+      </c>
+      <c r="JZ9" t="n">
+        <v>5400</v>
+      </c>
+      <c r="KA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC9" t="n">
+        <v>56900</v>
+      </c>
+      <c r="KD9" t="n">
+        <v>67600</v>
+      </c>
+      <c r="KE9" t="n">
+        <v>49100</v>
+      </c>
+      <c r="KF9" t="n">
+        <v>12700</v>
+      </c>
+      <c r="KG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH9" t="n">
+        <v>13100</v>
+      </c>
+      <c r="KI9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="KJ9" t="n">
+        <v>100</v>
+      </c>
+      <c r="KK9" t="n">
+        <v>4800</v>
+      </c>
+      <c r="KL9" t="n">
+        <v>100</v>
+      </c>
+      <c r="KM9" t="n">
+        <v>2300</v>
+      </c>
+      <c r="KN9" t="n">
+        <v>6700</v>
+      </c>
+      <c r="KO9" t="n">
+        <v>35900</v>
       </c>
     </row>
   </sheetData>

--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1306,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO9"/>
+  <dimension ref="A1:KO10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="9" spans="1:301">
       <c r="A9" s="8" t="n">
-        <v>43437.62083333333</v>
+        <v>43437.62083333332</v>
       </c>
       <c r="B9" t="n">
         <v>8800</v>
@@ -8522,9 +8522,6 @@
       <c r="R9" t="n">
         <v>7200</v>
       </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
       <c r="T9" t="n">
         <v>35400</v>
       </c>
@@ -8666,9 +8663,6 @@
       <c r="BN9" t="n">
         <v>23100</v>
       </c>
-      <c r="BO9" t="n">
-        <v/>
-      </c>
       <c r="BP9" t="n">
         <v>8100</v>
       </c>
@@ -8906,9 +8900,6 @@
       <c r="EP9" t="n">
         <v>5700</v>
       </c>
-      <c r="EQ9" t="n">
-        <v/>
-      </c>
       <c r="ER9" t="n">
         <v>11500</v>
       </c>
@@ -9370,6 +9361,911 @@
       </c>
       <c r="KO9" t="n">
         <v>35900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:301">
+      <c r="A10" s="8" t="n">
+        <v>43438.62083333333</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10400</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7400</v>
+      </c>
+      <c r="G10" t="n">
+        <v>35200</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100900</v>
+      </c>
+      <c r="I10" t="n">
+        <v>35000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K10" t="n">
+        <v>40400</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M10" t="n">
+        <v>22200</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9100</v>
+      </c>
+      <c r="P10" t="n">
+        <v>41700</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18200</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5500</v>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v>40900</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8400</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8500</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8400</v>
+      </c>
+      <c r="X10" t="n">
+        <v>23600</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>31600</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>29400</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>22700</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>50400</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19900</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>31300</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>83300</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>7100</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>75000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>10500</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2100</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7800</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>5500</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>3700</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>19900</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>33600</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>2100</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>24000</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2700</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>26700</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>5600</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>15700</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>25600</v>
+      </c>
+      <c r="BO10" t="n">
+        <v/>
+      </c>
+      <c r="BP10" t="n">
+        <v>10300</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>3200</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>44200</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>9000</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>5900</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>10500</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>19700</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>10400</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>16800</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>32300</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>4600</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>10600</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>5600</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>13000</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>1900</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>22900</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>2800</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>25700</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>13200</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>23000</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>17700</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>30900</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>8800</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>14600</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>7400</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>12900</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>5400</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>15100</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>4800</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>400</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>7600</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>4800</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>4200</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>3400</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>38000</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>62800</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>4400</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>55900</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>22800</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>34700</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>2600</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>21400</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>8500</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>74000</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>12400</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>34600</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>10400</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>7300</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>17300</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>24800</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>15600</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>19800</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>4300</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>25400</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>18300</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>24400</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>59700</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>13300</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v/>
+      </c>
+      <c r="ER10" t="n">
+        <v>8500</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>18100</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>39200</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>2800</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>12700</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>84400</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>5800</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>19300</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>13100</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>10600</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>10600</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>28100</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>7200</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>12800</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>10600</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>16200</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>26000</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>50900</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>13300</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>3900</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>52400</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>9400</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>1100</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>64000</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>5400</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>600</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>33200</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>16600</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>5200</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>4400</v>
+      </c>
+      <c r="GH10" t="n">
+        <v>19700</v>
+      </c>
+      <c r="GI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>17200</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>2600</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>1400</v>
+      </c>
+      <c r="GO10" t="n">
+        <v>18300</v>
+      </c>
+      <c r="GP10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="GQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR10" t="n">
+        <v>22200</v>
+      </c>
+      <c r="GS10" t="n">
+        <v>9400</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>55300</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>700</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>9400</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>16200</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>125900</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>21600</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>13700</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>16300</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>23600</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>27600</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>34700</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>10100</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>6100</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>2400</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>8900</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>3600</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>52300</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>13300</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>10700</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>15800</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>300</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>8600</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>19400</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>12500</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>59900</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>24900</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>17700</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>39800</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>21700</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>7300</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>24900</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>20300</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>15700</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="II10" t="n">
+        <v>7500</v>
+      </c>
+      <c r="IJ10" t="n">
+        <v>6300</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>1900</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>55600</v>
+      </c>
+      <c r="IO10" t="n">
+        <v>60600</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>32000</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>14200</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>23000</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>3500</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>10200</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>34300</v>
+      </c>
+      <c r="IZ10" t="n">
+        <v>14100</v>
+      </c>
+      <c r="JA10" t="n">
+        <v>6100</v>
+      </c>
+      <c r="JB10" t="n">
+        <v>8600</v>
+      </c>
+      <c r="JC10" t="n">
+        <v>124000</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>33800</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>22100</v>
+      </c>
+      <c r="JF10" t="n">
+        <v>31900</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>48300</v>
+      </c>
+      <c r="JI10" t="n">
+        <v>9200</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>3600</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>59700</v>
+      </c>
+      <c r="JM10" t="n">
+        <v>10800</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>94400</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>30800</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>23400</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>5600</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW10" t="n">
+        <v>23100</v>
+      </c>
+      <c r="JX10" t="n">
+        <v>102100</v>
+      </c>
+      <c r="JY10" t="n">
+        <v>17300</v>
+      </c>
+      <c r="JZ10" t="n">
+        <v>7800</v>
+      </c>
+      <c r="KA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC10" t="n">
+        <v>62700</v>
+      </c>
+      <c r="KD10" t="n">
+        <v>50300</v>
+      </c>
+      <c r="KE10" t="n">
+        <v>64900</v>
+      </c>
+      <c r="KF10" t="n">
+        <v>49400</v>
+      </c>
+      <c r="KG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH10" t="n">
+        <v>12300</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="KJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK10" t="n">
+        <v>4600</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM10" t="n">
+        <v>2900</v>
+      </c>
+      <c r="KN10" t="n">
+        <v>11300</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>26200</v>
       </c>
     </row>
   </sheetData>

--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1306,18 +1306,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO10"/>
+  <dimension ref="A1:KO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="24.5"/>
     <col bestFit="1" customWidth="1" max="301" min="2" style="2" width="12"/>
-    <col customWidth="1" max="304" min="302" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="305" style="2" width="9"/>
+    <col customWidth="1" max="305" min="302" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="306" style="2" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:301">
@@ -6682,7 +6682,7 @@
       </c>
     </row>
     <row r="7" spans="1:301">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="7" t="n">
         <v>43433.62083333332</v>
       </c>
       <c r="B7" t="n">
@@ -7575,7 +7575,7 @@
       </c>
     </row>
     <row r="8" spans="1:301">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="7" t="n">
         <v>43434.62083333332</v>
       </c>
       <c r="B8" t="n">
@@ -8468,7 +8468,7 @@
       </c>
     </row>
     <row r="9" spans="1:301">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="7" t="n">
         <v>43437.62083333332</v>
       </c>
       <c r="B9" t="n">
@@ -9364,8 +9364,8 @@
       </c>
     </row>
     <row r="10" spans="1:301">
-      <c r="A10" s="8" t="n">
-        <v>43438.62083333333</v>
+      <c r="A10" s="7" t="n">
+        <v>43438.62083333332</v>
       </c>
       <c r="B10" t="n">
         <v>7100</v>
@@ -9418,9 +9418,6 @@
       <c r="R10" t="n">
         <v>5500</v>
       </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
       <c r="T10" t="n">
         <v>40900</v>
       </c>
@@ -9562,9 +9559,6 @@
       <c r="BN10" t="n">
         <v>25600</v>
       </c>
-      <c r="BO10" t="n">
-        <v/>
-      </c>
       <c r="BP10" t="n">
         <v>10300</v>
       </c>
@@ -9802,9 +9796,6 @@
       <c r="EP10" t="n">
         <v>0</v>
       </c>
-      <c r="EQ10" t="n">
-        <v/>
-      </c>
       <c r="ER10" t="n">
         <v>8500</v>
       </c>
@@ -10266,6 +10257,911 @@
       </c>
       <c r="KO10" t="n">
         <v>26200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:301">
+      <c r="A11" s="8" t="n">
+        <v>43439.62083333333</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3800</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8100</v>
+      </c>
+      <c r="H11" t="n">
+        <v>95200</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1600</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9600</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10100</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>18600</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>31100</v>
+      </c>
+      <c r="U11" t="n">
+        <v>12900</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2500</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6100</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>22000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>17100</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>42400</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>17300</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15600</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>61400</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>9100</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>97500</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13900</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>8800</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12400</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>3200</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>15500</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>44500</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>5100</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>36100</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>2900</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>26000</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>6100</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>13900</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>16400</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>21700</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>4100</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>130200</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>26900</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>8300</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>13400</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>16600</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>43300</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>10400</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>3900</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>7600</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>3200</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>6200</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>9800</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>3800</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>11100</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>10200</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>35400</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>31900</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>7800</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>13800</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>9800</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>13200</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>16200</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>4500</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>3500</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>8700</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>7700</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>5400</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>2200</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>33500</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>95900</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>3900</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>70700</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>18500</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>2200</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>77700</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>10800</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>30000</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>9400</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>6900</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>18600</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>34700</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>30800</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>4600</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>22400</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>10700</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>12800</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>47600</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>14300</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>10100</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>45400</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>17500</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>105600</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>6800</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>5300</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>15800</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>13400</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>23700</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>27400</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>3800</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>900</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>11300</v>
+      </c>
+      <c r="FN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>9700</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>11600</v>
+      </c>
+      <c r="FQ11" t="n">
+        <v>65500</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>25600</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>6800</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>89600</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>57100</v>
+      </c>
+      <c r="FY11" t="n">
+        <v>4300</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>800</v>
+      </c>
+      <c r="GC11" t="n">
+        <v>24700</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>11100</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>20300</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>8400</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>3800</v>
+      </c>
+      <c r="GH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ11" t="n">
+        <v>400</v>
+      </c>
+      <c r="GK11" t="n">
+        <v>6700</v>
+      </c>
+      <c r="GL11" t="n">
+        <v>8300</v>
+      </c>
+      <c r="GM11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="GN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO11" t="n">
+        <v>26900</v>
+      </c>
+      <c r="GP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR11" t="n">
+        <v>15300</v>
+      </c>
+      <c r="GS11" t="n">
+        <v>4400</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>29600</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>7600</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>13900</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>157200</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>8400</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>20400</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>22500</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>42200</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>52400</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>30500</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>1900</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>12300</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>18400</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>30100</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>4900</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>54400</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>14500</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>53200</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>8800</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>25900</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="II11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ11" t="n">
+        <v>1900</v>
+      </c>
+      <c r="IK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>100</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>40100</v>
+      </c>
+      <c r="IO11" t="n">
+        <v>64500</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>18400</v>
+      </c>
+      <c r="IS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU11" t="n">
+        <v>7400</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>6900</v>
+      </c>
+      <c r="IY11" t="n">
+        <v>30200</v>
+      </c>
+      <c r="IZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA11" t="n">
+        <v>300</v>
+      </c>
+      <c r="JB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC11" t="n">
+        <v>126600</v>
+      </c>
+      <c r="JD11" t="n">
+        <v>12300</v>
+      </c>
+      <c r="JE11" t="n">
+        <v>28900</v>
+      </c>
+      <c r="JF11" t="n">
+        <v>27100</v>
+      </c>
+      <c r="JG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH11" t="n">
+        <v>66600</v>
+      </c>
+      <c r="JI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL11" t="n">
+        <v>26400</v>
+      </c>
+      <c r="JM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>19000</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>17700</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>15500</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>7800</v>
+      </c>
+      <c r="JU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW11" t="n">
+        <v>7900</v>
+      </c>
+      <c r="JX11" t="n">
+        <v>94300</v>
+      </c>
+      <c r="JY11" t="n">
+        <v>63900</v>
+      </c>
+      <c r="JZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC11" t="n">
+        <v>58100</v>
+      </c>
+      <c r="KD11" t="n">
+        <v>51100</v>
+      </c>
+      <c r="KE11" t="n">
+        <v>49700</v>
+      </c>
+      <c r="KF11" t="n">
+        <v>110300</v>
+      </c>
+      <c r="KG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="KJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="KL11" t="n">
+        <v>5100</v>
+      </c>
+      <c r="KM11" t="n">
+        <v>1900</v>
+      </c>
+      <c r="KN11" t="n">
+        <v>16000</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>62000</v>
       </c>
     </row>
   </sheetData>

--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1306,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO11"/>
+  <dimension ref="A1:KO12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -10261,7 +10261,7 @@
     </row>
     <row r="11" spans="1:301">
       <c r="A11" s="8" t="n">
-        <v>43439.62083333333</v>
+        <v>43439.62083333332</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -11162,6 +11162,911 @@
       </c>
       <c r="KO11" t="n">
         <v>62000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:301">
+      <c r="A12" s="8" t="n">
+        <v>43440.62083333333</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>200</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8700</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>600</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>600</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1300</v>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v>500</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>700</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>700</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2900</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>17100</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>500</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>11100</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>500</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>7600</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v/>
+      </c>
+      <c r="BP12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>200</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>17700</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>8400</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>5100</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>700</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>500</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>3300</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>9700</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>3500</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>4800</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>11900</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>15600</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>500</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>2600</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>4700</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>3700</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>6800</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v/>
+      </c>
+      <c r="ER12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>1600</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>6200</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>4600</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>900</v>
+      </c>
+      <c r="FM12" t="n">
+        <v>6700</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>13000</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>27600</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>1100</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>18900</v>
+      </c>
+      <c r="FY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB12" t="n">
+        <v>100</v>
+      </c>
+      <c r="GC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE12" t="n">
+        <v>6800</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>8000</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>400</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>26000</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>6700</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>6200</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>200</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>9200</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>2100</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA12" t="n">
+        <v>1900</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC12" t="n">
+        <v>500</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE12" t="n">
+        <v>2900</v>
+      </c>
+      <c r="IF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="II12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO12" t="n">
+        <v>2700</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="IZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC12" t="n">
+        <v>23800</v>
+      </c>
+      <c r="JD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="JF12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="JG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH12" t="n">
+        <v>7100</v>
+      </c>
+      <c r="JI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL12" t="n">
+        <v>700</v>
+      </c>
+      <c r="JM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>2900</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>500</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>1600</v>
+      </c>
+      <c r="JU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY12" t="n">
+        <v>11600</v>
+      </c>
+      <c r="JZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD12" t="n">
+        <v>6100</v>
+      </c>
+      <c r="KE12" t="n">
+        <v>9700</v>
+      </c>
+      <c r="KF12" t="n">
+        <v>24400</v>
+      </c>
+      <c r="KG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK12" t="n">
+        <v>600</v>
+      </c>
+      <c r="KL12" t="n">
+        <v>1600</v>
+      </c>
+      <c r="KM12" t="n">
+        <v>300</v>
+      </c>
+      <c r="KN12" t="n">
+        <v>2200</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>3700</v>
       </c>
     </row>
   </sheetData>

--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1306,18 +1306,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO12"/>
+  <dimension ref="A1:KO16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="24.5"/>
     <col bestFit="1" customWidth="1" max="301" min="2" style="2" width="12"/>
-    <col customWidth="1" max="305" min="302" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="306" style="2" width="9"/>
+    <col customWidth="1" max="306" min="302" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="307" style="2" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:301">
@@ -10260,7 +10260,7 @@
       </c>
     </row>
     <row r="11" spans="1:301">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="7" t="n">
         <v>43439.62083333332</v>
       </c>
       <c r="B11" t="n">
@@ -11165,8 +11165,8 @@
       </c>
     </row>
     <row r="12" spans="1:301">
-      <c r="A12" s="8" t="n">
-        <v>43440.62083333333</v>
+      <c r="A12" s="7" t="n">
+        <v>43440.62083333332</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -11219,9 +11219,6 @@
       <c r="R12" t="n">
         <v>1300</v>
       </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
       <c r="T12" t="n">
         <v>500</v>
       </c>
@@ -11363,9 +11360,6 @@
       <c r="BN12" t="n">
         <v>0</v>
       </c>
-      <c r="BO12" t="n">
-        <v/>
-      </c>
       <c r="BP12" t="n">
         <v>1000</v>
       </c>
@@ -11603,9 +11597,6 @@
       <c r="EP12" t="n">
         <v>0</v>
       </c>
-      <c r="EQ12" t="n">
-        <v/>
-      </c>
       <c r="ER12" t="n">
         <v>0</v>
       </c>
@@ -12067,6 +12058,3614 @@
       </c>
       <c r="KO12" t="n">
         <v>3700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:301">
+      <c r="A13" s="8" t="n">
+        <v>43441.62083333332</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12500</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20800</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3600</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1700</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1700</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>4500</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6100</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>16100</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>9700</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>1100</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>5500</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>600</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>17000</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>7100</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>3600</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>3200</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>4400</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>10200</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>7400</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>1200</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>1800</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>200</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>3800</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>1900</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>6900</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>5500</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>27600</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>20200</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>10600</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>7000</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>900</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>1100</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>15400</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>8300</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>4400</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>2800</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>11700</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>800</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>6900</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>7600</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM13" t="n">
+        <v>3900</v>
+      </c>
+      <c r="FN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO13" t="n">
+        <v>6400</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ13" t="n">
+        <v>9900</v>
+      </c>
+      <c r="FR13" t="n">
+        <v>6400</v>
+      </c>
+      <c r="FS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>1200</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>27200</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>18600</v>
+      </c>
+      <c r="FY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB13" t="n">
+        <v>100</v>
+      </c>
+      <c r="GC13" t="n">
+        <v>700</v>
+      </c>
+      <c r="GD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE13" t="n">
+        <v>5800</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG13" t="n">
+        <v>700</v>
+      </c>
+      <c r="GH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO13" t="n">
+        <v>1700</v>
+      </c>
+      <c r="GP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>51100</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>3800</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC13" t="n">
+        <v>3300</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>14400</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>1600</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="HQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR13" t="n">
+        <v>9400</v>
+      </c>
+      <c r="HS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>3700</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ13" t="n">
+        <v>200</v>
+      </c>
+      <c r="IA13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC13" t="n">
+        <v>8700</v>
+      </c>
+      <c r="ID13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="IF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="II13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>800</v>
+      </c>
+      <c r="IO13" t="n">
+        <v>14300</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY13" t="n">
+        <v>3900</v>
+      </c>
+      <c r="IZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC13" t="n">
+        <v>26900</v>
+      </c>
+      <c r="JD13" t="n">
+        <v>9800</v>
+      </c>
+      <c r="JE13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="JF13" t="n">
+        <v>14000</v>
+      </c>
+      <c r="JG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH13" t="n">
+        <v>17800</v>
+      </c>
+      <c r="JI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>1900</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>1800</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT13" t="n">
+        <v>1600</v>
+      </c>
+      <c r="JU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX13" t="n">
+        <v>6300</v>
+      </c>
+      <c r="JY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD13" t="n">
+        <v>8700</v>
+      </c>
+      <c r="KE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF13" t="n">
+        <v>40500</v>
+      </c>
+      <c r="KG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI13" t="n">
+        <v>100</v>
+      </c>
+      <c r="KJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK13" t="n">
+        <v>700</v>
+      </c>
+      <c r="KL13" t="n">
+        <v>400</v>
+      </c>
+      <c r="KM13" t="n">
+        <v>600</v>
+      </c>
+      <c r="KN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:301">
+      <c r="A14" s="8" t="n">
+        <v>43444.62083333332</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>500</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>200</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>900</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>13300</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>800</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>23700</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4200</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>500</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>2600</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>5500</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>200</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>300</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>5200</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>5600</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>300</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>1100</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>500</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>300</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>9300</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>900</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>8000</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>9500</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>3100</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>1300</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>1800</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>12200</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>4700</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>2400</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>900</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>3300</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI14" t="n">
+        <v>700</v>
+      </c>
+      <c r="FJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM14" t="n">
+        <v>3900</v>
+      </c>
+      <c r="FN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO14" t="n">
+        <v>900</v>
+      </c>
+      <c r="FP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ14" t="n">
+        <v>6200</v>
+      </c>
+      <c r="FR14" t="n">
+        <v>8000</v>
+      </c>
+      <c r="FS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT14" t="n">
+        <v>300</v>
+      </c>
+      <c r="FU14" t="n">
+        <v>10800</v>
+      </c>
+      <c r="FV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX14" t="n">
+        <v>17400</v>
+      </c>
+      <c r="FY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC14" t="n">
+        <v>2600</v>
+      </c>
+      <c r="GD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE14" t="n">
+        <v>5700</v>
+      </c>
+      <c r="GF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="GH14" t="n">
+        <v>800</v>
+      </c>
+      <c r="GI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO14" t="n">
+        <v>500</v>
+      </c>
+      <c r="GP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX14" t="n">
+        <v>31400</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>2300</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC14" t="n">
+        <v>3500</v>
+      </c>
+      <c r="HD14" t="n">
+        <v>1200</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>11900</v>
+      </c>
+      <c r="HF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>4400</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP14" t="n">
+        <v>6200</v>
+      </c>
+      <c r="HQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR14" t="n">
+        <v>6100</v>
+      </c>
+      <c r="HS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC14" t="n">
+        <v>8400</v>
+      </c>
+      <c r="ID14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE14" t="n">
+        <v>2100</v>
+      </c>
+      <c r="IF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="II14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="IP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY14" t="n">
+        <v>3400</v>
+      </c>
+      <c r="IZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC14" t="n">
+        <v>15900</v>
+      </c>
+      <c r="JD14" t="n">
+        <v>7200</v>
+      </c>
+      <c r="JE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF14" t="n">
+        <v>3100</v>
+      </c>
+      <c r="JG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH14" t="n">
+        <v>15900</v>
+      </c>
+      <c r="JI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT14" t="n">
+        <v>1300</v>
+      </c>
+      <c r="JU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV14" t="n">
+        <v>11200</v>
+      </c>
+      <c r="JW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY14" t="n">
+        <v>11100</v>
+      </c>
+      <c r="JZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="KE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF14" t="n">
+        <v>28900</v>
+      </c>
+      <c r="KG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI14" t="n">
+        <v>200</v>
+      </c>
+      <c r="KJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK14" t="n">
+        <v>200</v>
+      </c>
+      <c r="KL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:301">
+      <c r="A15" s="8" t="n">
+        <v>43445.62083333332</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>500</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8200</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>800</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3200</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1900</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1200</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>6000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>15800</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>3400</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>11200</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>31000</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1700</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>700</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>5600</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>6600</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>600</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>6400</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>3800</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>3200</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>1200</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>400</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>1600</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>200</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>8500</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>900</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>11900</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>6400</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>6900</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>900</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>300</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>1700</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>8800</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>1600</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>5300</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>500</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>1400</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>1100</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>400</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>4100</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI15" t="n">
+        <v>2900</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM15" t="n">
+        <v>6600</v>
+      </c>
+      <c r="FN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO15" t="n">
+        <v>9200</v>
+      </c>
+      <c r="FP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ15" t="n">
+        <v>7400</v>
+      </c>
+      <c r="FR15" t="n">
+        <v>8800</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="FU15" t="n">
+        <v>10800</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>27200</v>
+      </c>
+      <c r="FY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC15" t="n">
+        <v>9200</v>
+      </c>
+      <c r="GD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE15" t="n">
+        <v>7400</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG15" t="n">
+        <v>500</v>
+      </c>
+      <c r="GH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL15" t="n">
+        <v>900</v>
+      </c>
+      <c r="GM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX15" t="n">
+        <v>11200</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>2700</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC15" t="n">
+        <v>3100</v>
+      </c>
+      <c r="HD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>11100</v>
+      </c>
+      <c r="HF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>5200</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>1700</v>
+      </c>
+      <c r="HP15" t="n">
+        <v>5500</v>
+      </c>
+      <c r="HQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR15" t="n">
+        <v>4700</v>
+      </c>
+      <c r="HS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>2100</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ15" t="n">
+        <v>500</v>
+      </c>
+      <c r="IA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC15" t="n">
+        <v>10700</v>
+      </c>
+      <c r="ID15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="IF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="II15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ15" t="n">
+        <v>100</v>
+      </c>
+      <c r="IK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO15" t="n">
+        <v>3400</v>
+      </c>
+      <c r="IP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY15" t="n">
+        <v>7100</v>
+      </c>
+      <c r="IZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC15" t="n">
+        <v>15400</v>
+      </c>
+      <c r="JD15" t="n">
+        <v>4800</v>
+      </c>
+      <c r="JE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF15" t="n">
+        <v>7600</v>
+      </c>
+      <c r="JG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH15" t="n">
+        <v>15900</v>
+      </c>
+      <c r="JI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>2100</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT15" t="n">
+        <v>1900</v>
+      </c>
+      <c r="JU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV15" t="n">
+        <v>19200</v>
+      </c>
+      <c r="JW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY15" t="n">
+        <v>13600</v>
+      </c>
+      <c r="JZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA15" t="n">
+        <v>600</v>
+      </c>
+      <c r="KB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD15" t="n">
+        <v>6700</v>
+      </c>
+      <c r="KE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="KG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI15" t="n">
+        <v>400</v>
+      </c>
+      <c r="KJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK15" t="n">
+        <v>800</v>
+      </c>
+      <c r="KL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:301">
+      <c r="A16" s="8" t="n">
+        <v>43446.62083333333</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2800</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12400</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2800</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1700</v>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v>7500</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2100</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>200</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>17000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>800</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>3900</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>11900</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>2400</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>13200</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1800</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>400</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>2800</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>8400</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>1600</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>6100</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>6700</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>3600</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>100</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>5500</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>3100</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>300</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>8500</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>9500</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>3500</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>14600</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>1400</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>3000</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>6800</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>13300</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>2200</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>1600</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>7000</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>8800</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>3700</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>4500</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>4600</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>200</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>4500</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>3400</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>6100</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM16" t="n">
+        <v>7600</v>
+      </c>
+      <c r="FN16" t="n">
+        <v>1600</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>11500</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ16" t="n">
+        <v>9900</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>6200</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>11100</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>26500</v>
+      </c>
+      <c r="FY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB16" t="n">
+        <v>100</v>
+      </c>
+      <c r="GC16" t="n">
+        <v>5600</v>
+      </c>
+      <c r="GD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE16" t="n">
+        <v>7500</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG16" t="n">
+        <v>500</v>
+      </c>
+      <c r="GH16" t="n">
+        <v>1100</v>
+      </c>
+      <c r="GI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="GL16" t="n">
+        <v>1600</v>
+      </c>
+      <c r="GM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="GP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS16" t="n">
+        <v>400</v>
+      </c>
+      <c r="GT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>1700</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>2800</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC16" t="n">
+        <v>3100</v>
+      </c>
+      <c r="HD16" t="n">
+        <v>100</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>13800</v>
+      </c>
+      <c r="HF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH16" t="n">
+        <v>2100</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>6100</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>7000</v>
+      </c>
+      <c r="HQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR16" t="n">
+        <v>4200</v>
+      </c>
+      <c r="HS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU16" t="n">
+        <v>400</v>
+      </c>
+      <c r="HV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>1800</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ16" t="n">
+        <v>1100</v>
+      </c>
+      <c r="IA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC16" t="n">
+        <v>7200</v>
+      </c>
+      <c r="ID16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE16" t="n">
+        <v>3300</v>
+      </c>
+      <c r="IF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="II16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ16" t="n">
+        <v>2200</v>
+      </c>
+      <c r="IK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="IZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="JD16" t="n">
+        <v>10800</v>
+      </c>
+      <c r="JE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="JF16" t="n">
+        <v>7700</v>
+      </c>
+      <c r="JG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH16" t="n">
+        <v>18700</v>
+      </c>
+      <c r="JI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>3600</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT16" t="n">
+        <v>2600</v>
+      </c>
+      <c r="JU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="JZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA16" t="n">
+        <v>2100</v>
+      </c>
+      <c r="KB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD16" t="n">
+        <v>6700</v>
+      </c>
+      <c r="KE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF16" t="n">
+        <v>17600</v>
+      </c>
+      <c r="KG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="KJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK16" t="n">
+        <v>1100</v>
+      </c>
+      <c r="KL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM16" t="n">
+        <v>600</v>
+      </c>
+      <c r="KN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>8400</v>
       </c>
     </row>
   </sheetData>

--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1306,18 +1306,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO16"/>
+  <dimension ref="A1:KO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="24.5"/>
     <col bestFit="1" customWidth="1" max="301" min="2" style="2" width="12"/>
-    <col customWidth="1" max="306" min="302" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="307" style="2" width="9"/>
+    <col customWidth="1" max="307" min="302" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="308" style="2" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:301">
@@ -12061,7 +12061,7 @@
       </c>
     </row>
     <row r="13" spans="1:301">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="7" t="n">
         <v>43441.62083333332</v>
       </c>
       <c r="B13" t="n">
@@ -12960,7 +12960,7 @@
       </c>
     </row>
     <row r="14" spans="1:301">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="7" t="n">
         <v>43444.62083333332</v>
       </c>
       <c r="B14" t="n">
@@ -13862,7 +13862,7 @@
       </c>
     </row>
     <row r="15" spans="1:301">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="7" t="n">
         <v>43445.62083333332</v>
       </c>
       <c r="B15" t="n">
@@ -14764,8 +14764,8 @@
       </c>
     </row>
     <row r="16" spans="1:301">
-      <c r="A16" s="8" t="n">
-        <v>43446.62083333333</v>
+      <c r="A16" s="7" t="n">
+        <v>43446.62083333332</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -14818,9 +14818,6 @@
       <c r="R16" t="n">
         <v>1700</v>
       </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
       <c r="T16" t="n">
         <v>7500</v>
       </c>
@@ -15666,6 +15663,4510 @@
       </c>
       <c r="KO16" t="n">
         <v>8400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:301">
+      <c r="A17" s="7" t="n">
+        <v>43447.62083333332</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>300</v>
+      </c>
+      <c r="F17" t="n">
+        <v>32900</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>41500</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2900</v>
+      </c>
+      <c r="K17" t="n">
+        <v>26300</v>
+      </c>
+      <c r="L17" t="n">
+        <v>9300</v>
+      </c>
+      <c r="M17" t="n">
+        <v>37300</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2700</v>
+      </c>
+      <c r="P17" t="n">
+        <v>48100</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>12500</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6300</v>
+      </c>
+      <c r="T17" t="n">
+        <v>26400</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7900</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>24800</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3100</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>22900</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>3400</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13100</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>9200</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>50300</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10200</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>36100</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>10800</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>13700</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>2100</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>3800</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>5300</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>19000</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>35500</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>15900</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2100</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>46000</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5400</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>5300</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>7900</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>10400</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>15800</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>4300</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>8700</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>4600</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>15200</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>29400</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>12200</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>3500</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>6600</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>42600</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>1700</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>7300</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>8100</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>5700</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>2700</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>10700</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>22900</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>10100</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>2900</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>26500</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>4400</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>33100</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>3700</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>18200</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>57400</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>17100</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>48200</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>34400</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>3700</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>52300</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>200</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>9500</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>18100</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>27900</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>52200</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>6800</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>31300</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>14400</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>2100</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>2900</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>58300</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>17700</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>27100</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>7700</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>2400</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>15600</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>9600</v>
+      </c>
+      <c r="FI17" t="n">
+        <v>30200</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>6500</v>
+      </c>
+      <c r="FK17" t="n">
+        <v>800</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM17" t="n">
+        <v>19500</v>
+      </c>
+      <c r="FN17" t="n">
+        <v>32200</v>
+      </c>
+      <c r="FO17" t="n">
+        <v>35500</v>
+      </c>
+      <c r="FP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ17" t="n">
+        <v>43000</v>
+      </c>
+      <c r="FR17" t="n">
+        <v>20700</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>4700</v>
+      </c>
+      <c r="FU17" t="n">
+        <v>33400</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX17" t="n">
+        <v>63700</v>
+      </c>
+      <c r="FY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB17" t="n">
+        <v>400</v>
+      </c>
+      <c r="GC17" t="n">
+        <v>31400</v>
+      </c>
+      <c r="GD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE17" t="n">
+        <v>18900</v>
+      </c>
+      <c r="GF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="GH17" t="n">
+        <v>5400</v>
+      </c>
+      <c r="GI17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="GJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK17" t="n">
+        <v>22800</v>
+      </c>
+      <c r="GL17" t="n">
+        <v>8000</v>
+      </c>
+      <c r="GM17" t="n">
+        <v>1200</v>
+      </c>
+      <c r="GN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO17" t="n">
+        <v>26400</v>
+      </c>
+      <c r="GP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ17" t="n">
+        <v>25800</v>
+      </c>
+      <c r="GR17" t="n">
+        <v>14900</v>
+      </c>
+      <c r="GS17" t="n">
+        <v>8100</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>13000</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>69300</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>8200</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB17" t="n">
+        <v>28500</v>
+      </c>
+      <c r="HC17" t="n">
+        <v>19200</v>
+      </c>
+      <c r="HD17" t="n">
+        <v>2000</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>41300</v>
+      </c>
+      <c r="HF17" t="n">
+        <v>700</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>16500</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>18900</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>19600</v>
+      </c>
+      <c r="HQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>18800</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU17" t="n">
+        <v>5600</v>
+      </c>
+      <c r="HV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>19500</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>27000</v>
+      </c>
+      <c r="HZ17" t="n">
+        <v>7700</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>2600</v>
+      </c>
+      <c r="IC17" t="n">
+        <v>46600</v>
+      </c>
+      <c r="ID17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE17" t="n">
+        <v>14400</v>
+      </c>
+      <c r="IF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>8800</v>
+      </c>
+      <c r="II17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ17" t="n">
+        <v>11700</v>
+      </c>
+      <c r="IK17" t="n">
+        <v>7900</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO17" t="n">
+        <v>43100</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>2400</v>
+      </c>
+      <c r="IS17" t="n">
+        <v>43600</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>2700</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY17" t="n">
+        <v>31500</v>
+      </c>
+      <c r="IZ17" t="n">
+        <v>59000</v>
+      </c>
+      <c r="JA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC17" t="n">
+        <v>88200</v>
+      </c>
+      <c r="JD17" t="n">
+        <v>73600</v>
+      </c>
+      <c r="JE17" t="n">
+        <v>9000</v>
+      </c>
+      <c r="JF17" t="n">
+        <v>6500</v>
+      </c>
+      <c r="JG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH17" t="n">
+        <v>66800</v>
+      </c>
+      <c r="JI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ17" t="n">
+        <v>25400</v>
+      </c>
+      <c r="JK17" t="n">
+        <v>700</v>
+      </c>
+      <c r="JL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>27000</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>11400</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>6900</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT17" t="n">
+        <v>8200</v>
+      </c>
+      <c r="JU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV17" t="n">
+        <v>7300</v>
+      </c>
+      <c r="JW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY17" t="n">
+        <v>51200</v>
+      </c>
+      <c r="JZ17" t="n">
+        <v>8600</v>
+      </c>
+      <c r="KA17" t="n">
+        <v>6200</v>
+      </c>
+      <c r="KB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC17" t="n">
+        <v>4300</v>
+      </c>
+      <c r="KD17" t="n">
+        <v>41400</v>
+      </c>
+      <c r="KE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF17" t="n">
+        <v>65000</v>
+      </c>
+      <c r="KG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>4900</v>
+      </c>
+      <c r="KJ17" t="n">
+        <v>200</v>
+      </c>
+      <c r="KK17" t="n">
+        <v>5600</v>
+      </c>
+      <c r="KL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM17" t="n">
+        <v>3800</v>
+      </c>
+      <c r="KN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:301">
+      <c r="A18" s="7" t="n">
+        <v>43448.62083333332</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>400</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6100</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>600</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9600</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1900</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1400</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>10100</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5900</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>3100</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>8400</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>9600</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>600</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>300</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>100</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>700</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>3100</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>800</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>900</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>4300</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>10500</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>1100</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>4900</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>400</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>1900</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>100</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>2500</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>9200</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>600</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>13900</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>800</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>1400</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>13500</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>2600</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>1700</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>2300</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>7700</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>4100</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>500</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>3300</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>1900</v>
+      </c>
+      <c r="FI18" t="n">
+        <v>10000</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM18" t="n">
+        <v>5100</v>
+      </c>
+      <c r="FN18" t="n">
+        <v>5600</v>
+      </c>
+      <c r="FO18" t="n">
+        <v>5700</v>
+      </c>
+      <c r="FP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ18" t="n">
+        <v>13200</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>6900</v>
+      </c>
+      <c r="FS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="FU18" t="n">
+        <v>3100</v>
+      </c>
+      <c r="FW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX18" t="n">
+        <v>8600</v>
+      </c>
+      <c r="FY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB18" t="n">
+        <v>100</v>
+      </c>
+      <c r="GC18" t="n">
+        <v>3000</v>
+      </c>
+      <c r="GD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE18" t="n">
+        <v>2200</v>
+      </c>
+      <c r="GF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK18" t="n">
+        <v>1800</v>
+      </c>
+      <c r="GL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="GN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO18" t="n">
+        <v>5700</v>
+      </c>
+      <c r="GP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ18" t="n">
+        <v>14900</v>
+      </c>
+      <c r="GR18" t="n">
+        <v>3500</v>
+      </c>
+      <c r="GS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW18" t="n">
+        <v>2400</v>
+      </c>
+      <c r="GX18" t="n">
+        <v>4800</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>3100</v>
+      </c>
+      <c r="HA18" t="n">
+        <v>2200</v>
+      </c>
+      <c r="HB18" t="n">
+        <v>6600</v>
+      </c>
+      <c r="HC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>12700</v>
+      </c>
+      <c r="HF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH18" t="n">
+        <v>5800</v>
+      </c>
+      <c r="HI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>6400</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>3200</v>
+      </c>
+      <c r="HQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR18" t="n">
+        <v>3500</v>
+      </c>
+      <c r="HS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="HV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY18" t="n">
+        <v>700</v>
+      </c>
+      <c r="HZ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="IA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC18" t="n">
+        <v>9400</v>
+      </c>
+      <c r="ID18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE18" t="n">
+        <v>1700</v>
+      </c>
+      <c r="IF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="II18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="IK18" t="n">
+        <v>2500</v>
+      </c>
+      <c r="IL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS18" t="n">
+        <v>5400</v>
+      </c>
+      <c r="IT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ18" t="n">
+        <v>18600</v>
+      </c>
+      <c r="JA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC18" t="n">
+        <v>27600</v>
+      </c>
+      <c r="JD18" t="n">
+        <v>18900</v>
+      </c>
+      <c r="JE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH18" t="n">
+        <v>13700</v>
+      </c>
+      <c r="JI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ18" t="n">
+        <v>8000</v>
+      </c>
+      <c r="JK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP18" t="n">
+        <v>8400</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>3800</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="JU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY18" t="n">
+        <v>5400</v>
+      </c>
+      <c r="JZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF18" t="n">
+        <v>11000</v>
+      </c>
+      <c r="KG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI18" t="n">
+        <v>1400</v>
+      </c>
+      <c r="KJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK18" t="n">
+        <v>1700</v>
+      </c>
+      <c r="KL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM18" t="n">
+        <v>700</v>
+      </c>
+      <c r="KN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO18" t="n">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:301">
+      <c r="A19" s="7" t="n">
+        <v>43451.62083333332</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4700</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+      <c r="K19" t="n">
+        <v>13600</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3600</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11600</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>900</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1300</v>
+      </c>
+      <c r="U19" t="n">
+        <v>700</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3600</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>11800</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>7300</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>3500</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>700</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1500</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>2600</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>500</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>400</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>2900</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>11600</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>100</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>12400</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>4200</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>5900</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>17900</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>4700</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>1800</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>15200</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>1500</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>18300</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>1700</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>2600</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>6700</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>34700</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>4600</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>900</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>4200</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI19" t="n">
+        <v>8700</v>
+      </c>
+      <c r="FJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM19" t="n">
+        <v>1100</v>
+      </c>
+      <c r="FN19" t="n">
+        <v>13200</v>
+      </c>
+      <c r="FO19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="FP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ19" t="n">
+        <v>14400</v>
+      </c>
+      <c r="FR19" t="n">
+        <v>5600</v>
+      </c>
+      <c r="FS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT19" t="n">
+        <v>700</v>
+      </c>
+      <c r="FU19" t="n">
+        <v>3300</v>
+      </c>
+      <c r="FW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX19" t="n">
+        <v>7000</v>
+      </c>
+      <c r="FY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC19" t="n">
+        <v>2900</v>
+      </c>
+      <c r="GD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE19" t="n">
+        <v>2700</v>
+      </c>
+      <c r="GF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK19" t="n">
+        <v>6200</v>
+      </c>
+      <c r="GL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM19" t="n">
+        <v>1100</v>
+      </c>
+      <c r="GN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO19" t="n">
+        <v>6300</v>
+      </c>
+      <c r="GP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ19" t="n">
+        <v>20100</v>
+      </c>
+      <c r="GR19" t="n">
+        <v>4100</v>
+      </c>
+      <c r="GS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW19" t="n">
+        <v>2600</v>
+      </c>
+      <c r="GX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>2900</v>
+      </c>
+      <c r="HA19" t="n">
+        <v>2900</v>
+      </c>
+      <c r="HB19" t="n">
+        <v>12900</v>
+      </c>
+      <c r="HC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>9400</v>
+      </c>
+      <c r="HF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH19" t="n">
+        <v>5800</v>
+      </c>
+      <c r="HI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>1800</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP19" t="n">
+        <v>4800</v>
+      </c>
+      <c r="HQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU19" t="n">
+        <v>2400</v>
+      </c>
+      <c r="HV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY19" t="n">
+        <v>7800</v>
+      </c>
+      <c r="HZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC19" t="n">
+        <v>10400</v>
+      </c>
+      <c r="ID19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE19" t="n">
+        <v>2500</v>
+      </c>
+      <c r="IF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="II19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="IJ19" t="n">
+        <v>6200</v>
+      </c>
+      <c r="IK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS19" t="n">
+        <v>9200</v>
+      </c>
+      <c r="IT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ19" t="n">
+        <v>22800</v>
+      </c>
+      <c r="JA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC19" t="n">
+        <v>31100</v>
+      </c>
+      <c r="JD19" t="n">
+        <v>22900</v>
+      </c>
+      <c r="JE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH19" t="n">
+        <v>11200</v>
+      </c>
+      <c r="JI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ19" t="n">
+        <v>9800</v>
+      </c>
+      <c r="JK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO19" t="n">
+        <v>300</v>
+      </c>
+      <c r="JP19" t="n">
+        <v>11400</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>1400</v>
+      </c>
+      <c r="JR19" t="n">
+        <v>1600</v>
+      </c>
+      <c r="JS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT19" t="n">
+        <v>1400</v>
+      </c>
+      <c r="JU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY19" t="n">
+        <v>2600</v>
+      </c>
+      <c r="JZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB19" t="n">
+        <v>1900</v>
+      </c>
+      <c r="KC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF19" t="n">
+        <v>22900</v>
+      </c>
+      <c r="KG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK19" t="n">
+        <v>1800</v>
+      </c>
+      <c r="KL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM19" t="n">
+        <v>600</v>
+      </c>
+      <c r="KN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO19" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:301">
+      <c r="A20" s="8" t="n">
+        <v>43452.62083333332</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1900</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2600</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>15200</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>3700</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>100</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>200</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>1200</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>1100</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>5800</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>2600</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>500</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>5600</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>14300</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>2100</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>800</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>700</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>4100</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>500</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>6900</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>2100</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>200</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>1800</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL20" t="n">
+        <v>800</v>
+      </c>
+      <c r="FM20" t="n">
+        <v>4300</v>
+      </c>
+      <c r="FN20" t="n">
+        <v>6300</v>
+      </c>
+      <c r="FO20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="FP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR20" t="n">
+        <v>5500</v>
+      </c>
+      <c r="FS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT20" t="n">
+        <v>100</v>
+      </c>
+      <c r="FU20" t="n">
+        <v>12300</v>
+      </c>
+      <c r="FW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX20" t="n">
+        <v>12700</v>
+      </c>
+      <c r="FY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE20" t="n">
+        <v>4600</v>
+      </c>
+      <c r="GF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL20" t="n">
+        <v>100</v>
+      </c>
+      <c r="GM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO20" t="n">
+        <v>3400</v>
+      </c>
+      <c r="GP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB20" t="n">
+        <v>3100</v>
+      </c>
+      <c r="HC20" t="n">
+        <v>700</v>
+      </c>
+      <c r="HD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE20" t="n">
+        <v>12500</v>
+      </c>
+      <c r="HF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>3500</v>
+      </c>
+      <c r="HO20" t="n">
+        <v>100</v>
+      </c>
+      <c r="HP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR20" t="n">
+        <v>4600</v>
+      </c>
+      <c r="HS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX20" t="n">
+        <v>200</v>
+      </c>
+      <c r="HY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA20" t="n">
+        <v>100</v>
+      </c>
+      <c r="IB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC20" t="n">
+        <v>7100</v>
+      </c>
+      <c r="ID20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE20" t="n">
+        <v>1900</v>
+      </c>
+      <c r="IF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="II20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ20" t="n">
+        <v>2700</v>
+      </c>
+      <c r="IK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU20" t="n">
+        <v>800</v>
+      </c>
+      <c r="IV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC20" t="n">
+        <v>22700</v>
+      </c>
+      <c r="JD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE20" t="n">
+        <v>1500</v>
+      </c>
+      <c r="JF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH20" t="n">
+        <v>10200</v>
+      </c>
+      <c r="JI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ20" t="n">
+        <v>1300</v>
+      </c>
+      <c r="JK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>1900</v>
+      </c>
+      <c r="JS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT20" t="n">
+        <v>300</v>
+      </c>
+      <c r="JU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="KE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF20" t="n">
+        <v>9900</v>
+      </c>
+      <c r="KG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI20" t="n">
+        <v>100</v>
+      </c>
+      <c r="KJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK20" t="n">
+        <v>100</v>
+      </c>
+      <c r="KL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:301">
+      <c r="A21" s="8" t="n">
+        <v>43452.62083333333</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v/>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>300</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>100</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>100</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>100</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>100</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>300</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>100</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>100</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM21" t="n">
+        <v>100</v>
+      </c>
+      <c r="FN21" t="n">
+        <v>100</v>
+      </c>
+      <c r="FO21" t="n">
+        <v>100</v>
+      </c>
+      <c r="FP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR21" t="n">
+        <v>100</v>
+      </c>
+      <c r="FS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU21" t="n">
+        <v>200</v>
+      </c>
+      <c r="FV21" t="n">
+        <v/>
+      </c>
+      <c r="FW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX21" t="n">
+        <v>300</v>
+      </c>
+      <c r="FY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE21" t="n">
+        <v>100</v>
+      </c>
+      <c r="GF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO21" t="n">
+        <v>100</v>
+      </c>
+      <c r="GP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB21" t="n">
+        <v>100</v>
+      </c>
+      <c r="HC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE21" t="n">
+        <v>200</v>
+      </c>
+      <c r="HF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>100</v>
+      </c>
+      <c r="HO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR21" t="n">
+        <v>100</v>
+      </c>
+      <c r="HS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC21" t="n">
+        <v>100</v>
+      </c>
+      <c r="ID21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="II21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ21" t="n">
+        <v>100</v>
+      </c>
+      <c r="IK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC21" t="n">
+        <v>500</v>
+      </c>
+      <c r="JD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH21" t="n">
+        <v>200</v>
+      </c>
+      <c r="JI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF21" t="n">
+        <v>200</v>
+      </c>
+      <c r="KG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO21" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/IndexEnhancement/模拟盘PnL跟踪.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪.xlsx
@@ -1306,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO23"/>
+  <dimension ref="A1:KO26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
@@ -21064,7 +21064,7 @@
     </row>
     <row r="23" spans="1:301">
       <c r="A23" s="8" t="n">
-        <v>43455.62083333333</v>
+        <v>43455.62083333332</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -21117,9 +21117,6 @@
       <c r="R23" t="n">
         <v>0</v>
       </c>
-      <c r="S23" t="n">
-        <v/>
-      </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
@@ -21594,9 +21591,6 @@
       <c r="FU23" t="n">
         <v>6900</v>
       </c>
-      <c r="FV23" t="n">
-        <v/>
-      </c>
       <c r="FW23" t="n">
         <v>0</v>
       </c>
@@ -21964,6 +21958,2706 @@
         <v>0</v>
       </c>
       <c r="KO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:301">
+      <c r="A24" s="8" t="n">
+        <v>43458.62083333332</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2600</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>700</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>12800</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>300</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>500</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>1600</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>5300</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>2800</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>2900</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>1700</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>5700</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>10500</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>3700</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>200</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>1100</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>3000</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>100</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM24" t="n">
+        <v>5100</v>
+      </c>
+      <c r="FN24" t="n">
+        <v>5400</v>
+      </c>
+      <c r="FO24" t="n">
+        <v>400</v>
+      </c>
+      <c r="FP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR24" t="n">
+        <v>3100</v>
+      </c>
+      <c r="FS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU24" t="n">
+        <v>8900</v>
+      </c>
+      <c r="FW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX24" t="n">
+        <v>10200</v>
+      </c>
+      <c r="FY24" t="n">
+        <v>100</v>
+      </c>
+      <c r="FZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC24" t="n">
+        <v>600</v>
+      </c>
+      <c r="GD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE24" t="n">
+        <v>3900</v>
+      </c>
+      <c r="GF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG24" t="n">
+        <v>100</v>
+      </c>
+      <c r="GH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL24" t="n">
+        <v>900</v>
+      </c>
+      <c r="GM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO24" t="n">
+        <v>4100</v>
+      </c>
+      <c r="GP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>3400</v>
+      </c>
+      <c r="HC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>8200</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>3300</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>100</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>3600</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>2500</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE24" t="n">
+        <v>200</v>
+      </c>
+      <c r="IF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="II24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU24" t="n">
+        <v>700</v>
+      </c>
+      <c r="IV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC24" t="n">
+        <v>2900</v>
+      </c>
+      <c r="JD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH24" t="n">
+        <v>7100</v>
+      </c>
+      <c r="JI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>1200</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT24" t="n">
+        <v>100</v>
+      </c>
+      <c r="JU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY24" t="n">
+        <v>1700</v>
+      </c>
+      <c r="JZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD24" t="n">
+        <v>400</v>
+      </c>
+      <c r="KE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF24" t="n">
+        <v>100</v>
+      </c>
+      <c r="KG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI24" t="n">
+        <v>400</v>
+      </c>
+      <c r="KJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:301">
+      <c r="A25" s="8" t="n">
+        <v>43459.62083333332</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>10800</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>200</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>700</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>5400</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>100</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>500</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>4000</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>10200</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>100</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>700</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>2500</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM25" t="n">
+        <v>2700</v>
+      </c>
+      <c r="FN25" t="n">
+        <v>3600</v>
+      </c>
+      <c r="FO25" t="n">
+        <v>100</v>
+      </c>
+      <c r="FP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR25" t="n">
+        <v>2100</v>
+      </c>
+      <c r="FS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU25" t="n">
+        <v>7100</v>
+      </c>
+      <c r="FW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX25" t="n">
+        <v>9900</v>
+      </c>
+      <c r="FY25" t="n">
+        <v>400</v>
+      </c>
+      <c r="FZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="GD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE25" t="n">
+        <v>3500</v>
+      </c>
+      <c r="GF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG25" t="n">
+        <v>200</v>
+      </c>
+      <c r="GH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="GP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB25" t="n">
+        <v>300</v>
+      </c>
+      <c r="HC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE25" t="n">
+        <v>8900</v>
+      </c>
+      <c r="HF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH25" t="n">
+        <v>500</v>
+      </c>
+      <c r="HI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>3500</v>
+      </c>
+      <c r="HO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>700</v>
+      </c>
+      <c r="HQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR25" t="n">
+        <v>3100</v>
+      </c>
+      <c r="HS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>200</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="II25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH25" t="n">
+        <v>4300</v>
+      </c>
+      <c r="JI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>900</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT25" t="n">
+        <v>100</v>
+      </c>
+      <c r="JU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY25" t="n">
+        <v>3800</v>
+      </c>
+      <c r="JZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC25" t="n">
+        <v>1200</v>
+      </c>
+      <c r="KD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI25" t="n">
+        <v>100</v>
+      </c>
+      <c r="KJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:301">
+      <c r="A26" s="8" t="n">
+        <v>43460.62083333333</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>700</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v/>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>11100</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>100</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>800</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>3100</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>2200</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>200</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>400</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>4400</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>11900</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY26" t="n">
+        <v/>
+      </c>
+      <c r="DZ26" t="n">
+        <v>1300</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>1300</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>4900</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI26" t="n">
+        <v>1400</v>
+      </c>
+      <c r="FJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM26" t="n">
+        <v>4800</v>
+      </c>
+      <c r="FN26" t="n">
+        <v>1700</v>
+      </c>
+      <c r="FO26" t="n">
+        <v>100</v>
+      </c>
+      <c r="FP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR26" t="n">
+        <v>2700</v>
+      </c>
+      <c r="FS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU26" t="n">
+        <v>6300</v>
+      </c>
+      <c r="FV26" t="n">
+        <v/>
+      </c>
+      <c r="FW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX26" t="n">
+        <v>12300</v>
+      </c>
+      <c r="FY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC26" t="n">
+        <v>600</v>
+      </c>
+      <c r="GD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE26" t="n">
+        <v>3900</v>
+      </c>
+      <c r="GF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG26" t="n">
+        <v>200</v>
+      </c>
+      <c r="GH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM26" t="n">
+        <v>700</v>
+      </c>
+      <c r="GN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO26" t="n">
+        <v>3700</v>
+      </c>
+      <c r="GP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="HC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE26" t="n">
+        <v>8800</v>
+      </c>
+      <c r="HF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH26" t="n">
+        <v>1600</v>
+      </c>
+      <c r="HI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>2700</v>
+      </c>
+      <c r="HO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>1300</v>
+      </c>
+      <c r="HQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR26" t="n">
+        <v>2800</v>
+      </c>
+      <c r="HS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="II26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH26" t="n">
+        <v>3800</v>
+      </c>
+      <c r="JI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>1500</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY26" t="n">
+        <v>3700</v>
+      </c>
+      <c r="JZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC26" t="n">
+        <v>3800</v>
+      </c>
+      <c r="KD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI26" t="n">
+        <v>100</v>
+      </c>
+      <c r="KJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO26" t="n">
         <v>0</v>
       </c>
     </row>
